--- a/Calendar1/calendar.xlsx
+++ b/Calendar1/calendar.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>Title</t>
   </si>
@@ -56,142 +56,205 @@
     <t>Sadık</t>
   </si>
   <si>
+    <t>28.12.2023</t>
+  </si>
+  <si>
+    <t>Dijital Uygulama</t>
+  </si>
+  <si>
+    <t>05.12.2023</t>
+  </si>
+  <si>
+    <t>12.12.2023</t>
+  </si>
+  <si>
+    <t>08.12.2023</t>
+  </si>
+  <si>
+    <t>19.12.2023</t>
+  </si>
+  <si>
+    <t>20.12.2023</t>
+  </si>
+  <si>
+    <t>15.12.2023</t>
+  </si>
+  <si>
+    <t>Engin</t>
+  </si>
+  <si>
+    <t>11.12.2023</t>
+  </si>
+  <si>
+    <t>04.12.2023</t>
+  </si>
+  <si>
+    <t>18.12.2023</t>
+  </si>
+  <si>
+    <t>01.12.2023</t>
+  </si>
+  <si>
+    <t>22.12.2023</t>
+  </si>
+  <si>
+    <t>07.12.2023</t>
+  </si>
+  <si>
+    <t>06.12.2023</t>
+  </si>
+  <si>
+    <t>Emre</t>
+  </si>
+  <si>
+    <t>13.12.2023</t>
+  </si>
+  <si>
+    <t>Bankacılık</t>
+  </si>
+  <si>
+    <t>14.12.2023</t>
+  </si>
+  <si>
+    <t>26.12.2023</t>
+  </si>
+  <si>
+    <t>Mücahit</t>
+  </si>
+  <si>
+    <t>29.12.2023</t>
+  </si>
+  <si>
+    <t>21.12.2023</t>
+  </si>
+  <si>
+    <t>Gizem</t>
+  </si>
+  <si>
+    <t>27.12.2023</t>
+  </si>
+  <si>
+    <t>Furkan</t>
+  </si>
+  <si>
+    <t>Zelal</t>
+  </si>
+  <si>
+    <t>25.12.2023</t>
+  </si>
+  <si>
+    <t>Birkan</t>
+  </si>
+  <si>
+    <t>Samet</t>
+  </si>
+  <si>
+    <t>Kerem</t>
+  </si>
+  <si>
+    <t>Ahmet</t>
+  </si>
+  <si>
+    <t>Kadir</t>
+  </si>
+  <si>
+    <t>Aleyna</t>
+  </si>
+  <si>
+    <t>Buğra</t>
+  </si>
+  <si>
+    <t>Emir</t>
+  </si>
+  <si>
+    <t>Nursima</t>
+  </si>
+  <si>
+    <t>Gözde</t>
+  </si>
+  <si>
+    <t>Aslınur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ömer </t>
+  </si>
+  <si>
+    <t>01.11.2023</t>
+  </si>
+  <si>
+    <t>02.11.2023</t>
+  </si>
+  <si>
+    <t>Tufan</t>
+  </si>
+  <si>
+    <t>03.11.2023</t>
+  </si>
+  <si>
+    <t>06.11.2023</t>
+  </si>
+  <si>
+    <t>Arzu</t>
+  </si>
+  <si>
+    <t>Cüneyt</t>
+  </si>
+  <si>
+    <t>Güray</t>
+  </si>
+  <si>
+    <t>07.11.2023</t>
+  </si>
+  <si>
+    <t>08.11.2023</t>
+  </si>
+  <si>
+    <t>09.11.2023</t>
+  </si>
+  <si>
+    <t>10.11.2023</t>
+  </si>
+  <si>
+    <t>13.11.2023</t>
+  </si>
+  <si>
+    <t>14.11.2023</t>
+  </si>
+  <si>
+    <t>15.11.2023</t>
+  </si>
+  <si>
+    <t>16.11.2023</t>
+  </si>
+  <si>
+    <t>17.11.2023</t>
+  </si>
+  <si>
+    <t>20.11.2023</t>
+  </si>
+  <si>
+    <t>21.11.2023</t>
+  </si>
+  <si>
+    <t>22.11.2023</t>
+  </si>
+  <si>
+    <t>23.11.2023</t>
+  </si>
+  <si>
+    <t>24.11.2023</t>
+  </si>
+  <si>
     <t>27.11.2023</t>
   </si>
   <si>
-    <t>Dijital Uygulama</t>
-  </si>
-  <si>
-    <t>06.11.2023</t>
-  </si>
-  <si>
-    <t>20.11.2023</t>
+    <t>28.11.2023</t>
   </si>
   <si>
     <t>29.11.2023</t>
   </si>
   <si>
-    <t>17.11.2023</t>
-  </si>
-  <si>
-    <t>08.11.2023</t>
-  </si>
-  <si>
-    <t>24.11.2023</t>
-  </si>
-  <si>
-    <t>Engin</t>
-  </si>
-  <si>
-    <t>21.11.2023</t>
-  </si>
-  <si>
-    <t>02.11.2023</t>
-  </si>
-  <si>
-    <t>09.11.2023</t>
-  </si>
-  <si>
-    <t>23.11.2023</t>
-  </si>
-  <si>
-    <t>13.11.2023</t>
-  </si>
-  <si>
     <t>30.11.2023</t>
-  </si>
-  <si>
-    <t>03.11.2023</t>
-  </si>
-  <si>
-    <t>Emre</t>
-  </si>
-  <si>
-    <t>10.11.2023</t>
-  </si>
-  <si>
-    <t>Bankacılık</t>
-  </si>
-  <si>
-    <t>01.11.2023</t>
-  </si>
-  <si>
-    <t>22.11.2023</t>
-  </si>
-  <si>
-    <t>Mücahit</t>
-  </si>
-  <si>
-    <t>07.11.2023</t>
-  </si>
-  <si>
-    <t>16.11.2023</t>
-  </si>
-  <si>
-    <t>28.11.2023</t>
-  </si>
-  <si>
-    <t>Gizem</t>
-  </si>
-  <si>
-    <t>15.11.2023</t>
-  </si>
-  <si>
-    <t>Furkan</t>
-  </si>
-  <si>
-    <t>14.11.2023</t>
-  </si>
-  <si>
-    <t>Zelal</t>
-  </si>
-  <si>
-    <t>Birkan</t>
-  </si>
-  <si>
-    <t>Samet</t>
-  </si>
-  <si>
-    <t>Kerem</t>
-  </si>
-  <si>
-    <t>Ahmet</t>
-  </si>
-  <si>
-    <t>Kadir</t>
-  </si>
-  <si>
-    <t>Aleyna</t>
-  </si>
-  <si>
-    <t>Buğra</t>
-  </si>
-  <si>
-    <t>Emir</t>
-  </si>
-  <si>
-    <t>Nursima</t>
-  </si>
-  <si>
-    <t>Gözde</t>
-  </si>
-  <si>
-    <t>Aslınur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ömer </t>
-  </si>
-  <si>
-    <t>Tufan</t>
-  </si>
-  <si>
-    <t>Arzu</t>
-  </si>
-  <si>
-    <t>Cüneyt</t>
-  </si>
-  <si>
-    <t>Güray</t>
   </si>
   <si>
     <t>Name</t>
@@ -554,7 +617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{985BC178-C795-4907-A9FA-007C2EBF8CA4}">
-  <dimension ref="A1:D127"/>
+  <dimension ref="A1:D126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
@@ -798,10 +861,10 @@
         <v>21</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>23</v>
@@ -826,10 +889,10 @@
         <v>21</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>23</v>
@@ -840,10 +903,10 @@
         <v>21</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>23</v>
@@ -854,10 +917,10 @@
         <v>21</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>23</v>
@@ -868,10 +931,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>23</v>
@@ -882,10 +945,10 @@
         <v>26</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>23</v>
@@ -896,10 +959,10 @@
         <v>26</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>23</v>
@@ -910,10 +973,10 @@
         <v>26</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>23</v>
@@ -924,10 +987,10 @@
         <v>26</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>23</v>
@@ -938,10 +1001,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>23</v>
@@ -952,10 +1015,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>23</v>
@@ -966,10 +1029,10 @@
         <v>26</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>23</v>
@@ -977,13 +1040,13 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D30" s="0" t="s">
         <v>6</v>
@@ -991,13 +1054,13 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>6</v>
@@ -1005,13 +1068,13 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>6</v>
@@ -1019,13 +1082,13 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D33" s="0" t="s">
         <v>6</v>
@@ -1033,13 +1096,13 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="0" t="s">
-        <v>25</v>
-      </c>
       <c r="C34" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>6</v>
@@ -1047,13 +1110,13 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>6</v>
@@ -1061,13 +1124,13 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>6</v>
@@ -1075,13 +1138,13 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="D37" s="0" t="s">
         <v>6</v>
@@ -1089,13 +1152,13 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>6</v>
@@ -1103,13 +1166,13 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D39" s="0" t="s">
         <v>6</v>
@@ -1117,13 +1180,13 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D40" s="0" t="s">
         <v>6</v>
@@ -1131,13 +1194,13 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D41" s="0" t="s">
         <v>6</v>
@@ -1145,13 +1208,13 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D42" s="0" t="s">
         <v>6</v>
@@ -1159,13 +1222,13 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>6</v>
@@ -1173,13 +1236,13 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="D44" s="0" t="s">
         <v>23</v>
@@ -1187,13 +1250,13 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D45" s="0" t="s">
         <v>23</v>
@@ -1201,7 +1264,7 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>12</v>
@@ -1215,13 +1278,13 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D47" s="0" t="s">
         <v>23</v>
@@ -1229,13 +1292,13 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D48" s="0" t="s">
         <v>23</v>
@@ -1243,13 +1306,13 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D49" s="0" t="s">
         <v>23</v>
@@ -1257,7 +1320,7 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>10</v>
@@ -1271,13 +1334,13 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D51" s="0" t="s">
         <v>6</v>
@@ -1285,13 +1348,13 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D52" s="0" t="s">
         <v>6</v>
@@ -1299,13 +1362,13 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D53" s="0" t="s">
         <v>6</v>
@@ -1313,13 +1376,13 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>6</v>
@@ -1327,13 +1390,13 @@
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D55" s="0" t="s">
         <v>6</v>
@@ -1341,13 +1404,13 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D56" s="0" t="s">
         <v>6</v>
@@ -1355,13 +1418,13 @@
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D57" s="0" t="s">
         <v>6</v>
@@ -1369,13 +1432,13 @@
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>6</v>
@@ -1383,13 +1446,13 @@
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D59" s="0" t="s">
         <v>6</v>
@@ -1397,13 +1460,13 @@
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D60" s="0" t="s">
         <v>6</v>
@@ -1411,13 +1474,13 @@
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D61" s="0" t="s">
         <v>6</v>
@@ -1425,13 +1488,13 @@
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D62" s="0" t="s">
         <v>6</v>
@@ -1439,13 +1502,13 @@
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D63" s="0" t="s">
         <v>6</v>
@@ -1453,13 +1516,13 @@
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D64" s="0" t="s">
         <v>6</v>
@@ -1467,13 +1530,13 @@
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D65" s="0" t="s">
         <v>23</v>
@@ -1481,13 +1544,13 @@
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D66" s="0" t="s">
         <v>23</v>
@@ -1495,13 +1558,13 @@
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D67" s="0" t="s">
         <v>23</v>
@@ -1509,13 +1572,13 @@
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D68" s="0" t="s">
         <v>23</v>
@@ -1523,13 +1586,13 @@
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D69" s="0" t="s">
         <v>23</v>
@@ -1537,13 +1600,13 @@
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D70" s="0" t="s">
         <v>23</v>
@@ -1551,13 +1614,13 @@
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D71" s="0" t="s">
         <v>23</v>
@@ -1565,13 +1628,13 @@
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D72" s="0" t="s">
         <v>6</v>
@@ -1579,13 +1642,13 @@
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D73" s="0" t="s">
         <v>6</v>
@@ -1593,13 +1656,13 @@
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D74" s="0" t="s">
         <v>6</v>
@@ -1607,13 +1670,13 @@
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D75" s="0" t="s">
         <v>6</v>
@@ -1621,13 +1684,13 @@
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D76" s="0" t="s">
         <v>6</v>
@@ -1635,13 +1698,13 @@
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D77" s="0" t="s">
         <v>6</v>
@@ -1652,10 +1715,10 @@
         <v>38</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D78" s="0" t="s">
         <v>6</v>
@@ -1663,13 +1726,13 @@
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D79" s="0" t="s">
         <v>6</v>
@@ -1677,13 +1740,13 @@
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D80" s="0" t="s">
         <v>6</v>
@@ -1691,13 +1754,13 @@
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D81" s="0" t="s">
         <v>6</v>
@@ -1705,13 +1768,13 @@
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D82" s="0" t="s">
         <v>6</v>
@@ -1719,7 +1782,7 @@
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>33</v>
@@ -1733,13 +1796,13 @@
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D84" s="0" t="s">
         <v>6</v>
@@ -1750,24 +1813,24 @@
         <v>39</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="D86" s="0" t="s">
         <v>23</v>
@@ -1775,13 +1838,13 @@
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D87" s="0" t="s">
         <v>23</v>
@@ -1789,7 +1852,7 @@
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>5</v>
@@ -1803,13 +1866,13 @@
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D89" s="0" t="s">
         <v>23</v>
@@ -1817,13 +1880,13 @@
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D90" s="0" t="s">
         <v>23</v>
@@ -1831,13 +1894,13 @@
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D91" s="0" t="s">
         <v>23</v>
@@ -1848,10 +1911,10 @@
         <v>40</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D92" s="0" t="s">
         <v>23</v>
@@ -1859,7 +1922,7 @@
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>7</v>
@@ -1873,13 +1936,13 @@
     </row>
     <row r="94">
       <c r="A94" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D94" s="0" t="s">
         <v>23</v>
@@ -1887,13 +1950,13 @@
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D95" s="0" t="s">
         <v>23</v>
@@ -1901,13 +1964,13 @@
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D96" s="0" t="s">
         <v>23</v>
@@ -1915,13 +1978,13 @@
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D97" s="0" t="s">
         <v>23</v>
@@ -1929,13 +1992,13 @@
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D98" s="0" t="s">
         <v>23</v>
@@ -1946,10 +2009,10 @@
         <v>41</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D99" s="0" t="s">
         <v>23</v>
@@ -1957,13 +2020,13 @@
     </row>
     <row r="100">
       <c r="A100" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D100" s="0" t="s">
         <v>23</v>
@@ -1971,13 +2034,13 @@
     </row>
     <row r="101">
       <c r="A101" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D101" s="0" t="s">
         <v>23</v>
@@ -1985,13 +2048,13 @@
     </row>
     <row r="102">
       <c r="A102" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="D102" s="0" t="s">
         <v>23</v>
@@ -1999,13 +2062,13 @@
     </row>
     <row r="103">
       <c r="A103" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D103" s="0" t="s">
         <v>23</v>
@@ -2013,13 +2076,13 @@
     </row>
     <row r="104">
       <c r="A104" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="D104" s="0" t="s">
         <v>23</v>
@@ -2027,13 +2090,13 @@
     </row>
     <row r="105">
       <c r="A105" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D105" s="0" t="s">
         <v>23</v>
@@ -2044,10 +2107,10 @@
         <v>42</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D106" s="0" t="s">
         <v>23</v>
@@ -2055,13 +2118,13 @@
     </row>
     <row r="107">
       <c r="A107" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D107" s="0" t="s">
         <v>23</v>
@@ -2069,13 +2132,13 @@
     </row>
     <row r="108">
       <c r="A108" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D108" s="0" t="s">
         <v>23</v>
@@ -2083,13 +2146,13 @@
     </row>
     <row r="109">
       <c r="A109" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D109" s="0" t="s">
         <v>23</v>
@@ -2097,7 +2160,7 @@
     </row>
     <row r="110">
       <c r="A110" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B110" s="0" t="s">
         <v>25</v>
@@ -2111,13 +2174,13 @@
     </row>
     <row r="111">
       <c r="A111" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D111" s="0" t="s">
         <v>23</v>
@@ -2125,13 +2188,13 @@
     </row>
     <row r="112">
       <c r="A112" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D112" s="0" t="s">
         <v>23</v>
@@ -2142,24 +2205,24 @@
         <v>43</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D114" s="0" t="s">
         <v>6</v>
@@ -2167,13 +2230,13 @@
     </row>
     <row r="115">
       <c r="A115" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D115" s="0" t="s">
         <v>6</v>
@@ -2181,13 +2244,13 @@
     </row>
     <row r="116">
       <c r="A116" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D116" s="0" t="s">
         <v>6</v>
@@ -2195,13 +2258,13 @@
     </row>
     <row r="117">
       <c r="A117" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D117" s="0" t="s">
         <v>6</v>
@@ -2209,13 +2272,13 @@
     </row>
     <row r="118">
       <c r="A118" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D118" s="0" t="s">
         <v>6</v>
@@ -2223,13 +2286,13 @@
     </row>
     <row r="119">
       <c r="A119" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D119" s="0" t="s">
         <v>6</v>
@@ -2240,24 +2303,24 @@
         <v>44</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D121" s="0" t="s">
         <v>23</v>
@@ -2265,13 +2328,13 @@
     </row>
     <row r="122">
       <c r="A122" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D122" s="0" t="s">
         <v>23</v>
@@ -2279,13 +2342,13 @@
     </row>
     <row r="123">
       <c r="A123" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D123" s="0" t="s">
         <v>23</v>
@@ -2293,13 +2356,13 @@
     </row>
     <row r="124">
       <c r="A124" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D124" s="0" t="s">
         <v>23</v>
@@ -2307,13 +2370,13 @@
     </row>
     <row r="125">
       <c r="A125" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D125" s="0" t="s">
         <v>23</v>
@@ -2321,29 +2384,15 @@
     </row>
     <row r="126">
       <c r="A126" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="B127" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C127" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D127" s="0" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2381,442 +2430,442 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>24</v>
-      </c>
       <c r="C2" s="0" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>15</v>
-      </c>
       <c r="C3" s="0" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>7</v>
-      </c>
       <c r="C10" s="0" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42">
@@ -2824,10 +2873,10 @@
         <v>48</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43">
@@ -2835,10 +2884,10 @@
         <v>48</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2859,37 +2908,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2910,7 +2959,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>3</v>
@@ -2950,7 +2999,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>6</v>
@@ -2958,7 +3007,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>6</v>
@@ -2966,7 +3015,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>23</v>
@@ -2974,7 +3023,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>6</v>
@@ -2982,7 +3031,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>6</v>
@@ -2990,7 +3039,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>6</v>
@@ -2998,7 +3047,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>23</v>
@@ -3006,7 +3055,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>6</v>
@@ -3014,7 +3063,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>6</v>
@@ -3022,7 +3071,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>23</v>
@@ -3030,7 +3079,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>23</v>
@@ -3038,7 +3087,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>23</v>
@@ -3046,7 +3095,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>23</v>
@@ -3054,7 +3103,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>6</v>
@@ -3062,7 +3111,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>23</v>

--- a/Calendar1/calendar.xlsx
+++ b/Calendar1/calendar.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Title</t>
   </si>
@@ -56,82 +56,88 @@
     <t>Sadık</t>
   </si>
   <si>
-    <t>28.12.2023</t>
+    <t>24.11.2023</t>
   </si>
   <si>
     <t>Dijital Uygulama</t>
   </si>
   <si>
-    <t>05.12.2023</t>
-  </si>
-  <si>
-    <t>12.12.2023</t>
-  </si>
-  <si>
-    <t>08.12.2023</t>
-  </si>
-  <si>
-    <t>19.12.2023</t>
-  </si>
-  <si>
-    <t>20.12.2023</t>
-  </si>
-  <si>
-    <t>15.12.2023</t>
+    <t>10.11.2023</t>
+  </si>
+  <si>
+    <t>02.11.2023</t>
+  </si>
+  <si>
+    <t>03.11.2023</t>
+  </si>
+  <si>
+    <t>27.11.2023</t>
+  </si>
+  <si>
+    <t>21.11.2023</t>
+  </si>
+  <si>
+    <t>28.11.2023</t>
   </si>
   <si>
     <t>Engin</t>
   </si>
   <si>
-    <t>11.12.2023</t>
-  </si>
-  <si>
-    <t>04.12.2023</t>
-  </si>
-  <si>
-    <t>18.12.2023</t>
-  </si>
-  <si>
-    <t>01.12.2023</t>
-  </si>
-  <si>
-    <t>22.12.2023</t>
-  </si>
-  <si>
-    <t>07.12.2023</t>
-  </si>
-  <si>
-    <t>06.12.2023</t>
+    <t>30.11.2023</t>
+  </si>
+  <si>
+    <t>08.11.2023</t>
+  </si>
+  <si>
+    <t>17.11.2023</t>
+  </si>
+  <si>
+    <t>23.11.2023</t>
+  </si>
+  <si>
+    <t>13.11.2023</t>
+  </si>
+  <si>
+    <t>15.11.2023</t>
+  </si>
+  <si>
+    <t>06.11.2023</t>
   </si>
   <si>
     <t>Emre</t>
   </si>
   <si>
-    <t>13.12.2023</t>
-  </si>
-  <si>
     <t>Bankacılık</t>
   </si>
   <si>
-    <t>14.12.2023</t>
-  </si>
-  <si>
-    <t>26.12.2023</t>
+    <t>07.11.2023</t>
+  </si>
+  <si>
+    <t>20.11.2023</t>
+  </si>
+  <si>
+    <t>09.11.2023</t>
+  </si>
+  <si>
+    <t>22.11.2023</t>
   </si>
   <si>
     <t>Mücahit</t>
   </si>
   <si>
-    <t>29.12.2023</t>
-  </si>
-  <si>
-    <t>21.12.2023</t>
+    <t>29.11.2023</t>
+  </si>
+  <si>
+    <t>01.11.2023</t>
+  </si>
+  <si>
+    <t>16.11.2023</t>
   </si>
   <si>
     <t>Gizem</t>
   </si>
   <si>
-    <t>27.12.2023</t>
+    <t>14.11.2023</t>
   </si>
   <si>
     <t>Furkan</t>
@@ -140,9 +146,6 @@
     <t>Zelal</t>
   </si>
   <si>
-    <t>25.12.2023</t>
-  </si>
-  <si>
     <t>Birkan</t>
   </si>
   <si>
@@ -179,21 +182,9 @@
     <t xml:space="preserve">Ömer </t>
   </si>
   <si>
-    <t>01.11.2023</t>
-  </si>
-  <si>
-    <t>02.11.2023</t>
-  </si>
-  <si>
     <t>Tufan</t>
   </si>
   <si>
-    <t>03.11.2023</t>
-  </si>
-  <si>
-    <t>06.11.2023</t>
-  </si>
-  <si>
     <t>Arzu</t>
   </si>
   <si>
@@ -201,60 +192,6 @@
   </si>
   <si>
     <t>Güray</t>
-  </si>
-  <si>
-    <t>07.11.2023</t>
-  </si>
-  <si>
-    <t>08.11.2023</t>
-  </si>
-  <si>
-    <t>09.11.2023</t>
-  </si>
-  <si>
-    <t>10.11.2023</t>
-  </si>
-  <si>
-    <t>13.11.2023</t>
-  </si>
-  <si>
-    <t>14.11.2023</t>
-  </si>
-  <si>
-    <t>15.11.2023</t>
-  </si>
-  <si>
-    <t>16.11.2023</t>
-  </si>
-  <si>
-    <t>17.11.2023</t>
-  </si>
-  <si>
-    <t>20.11.2023</t>
-  </si>
-  <si>
-    <t>21.11.2023</t>
-  </si>
-  <si>
-    <t>22.11.2023</t>
-  </si>
-  <si>
-    <t>23.11.2023</t>
-  </si>
-  <si>
-    <t>24.11.2023</t>
-  </si>
-  <si>
-    <t>27.11.2023</t>
-  </si>
-  <si>
-    <t>28.11.2023</t>
-  </si>
-  <si>
-    <t>29.11.2023</t>
-  </si>
-  <si>
-    <t>30.11.2023</t>
   </si>
   <si>
     <t>Name</t>
@@ -617,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{985BC178-C795-4907-A9FA-007C2EBF8CA4}">
-  <dimension ref="A1:D126"/>
+  <dimension ref="A1:D127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
@@ -847,13 +784,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17">
@@ -861,13 +798,13 @@
         <v>21</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
@@ -881,7 +818,7 @@
         <v>24</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
@@ -889,13 +826,13 @@
         <v>21</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20">
@@ -903,13 +840,13 @@
         <v>21</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21">
@@ -917,13 +854,13 @@
         <v>21</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22">
@@ -931,122 +868,122 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D30" s="0" t="s">
         <v>6</v>
@@ -1054,13 +991,13 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>6</v>
@@ -1068,13 +1005,13 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>6</v>
@@ -1082,13 +1019,13 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="0" t="s">
-        <v>5</v>
-      </c>
       <c r="C33" s="0" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="D33" s="0" t="s">
         <v>6</v>
@@ -1096,13 +1033,13 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>6</v>
@@ -1110,13 +1047,13 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>6</v>
@@ -1124,13 +1061,13 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>6</v>
@@ -1138,7 +1075,7 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>5</v>
@@ -1152,13 +1089,13 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>6</v>
@@ -1166,13 +1103,13 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D39" s="0" t="s">
         <v>6</v>
@@ -1180,13 +1117,13 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D40" s="0" t="s">
         <v>6</v>
@@ -1194,13 +1131,13 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D41" s="0" t="s">
         <v>6</v>
@@ -1208,13 +1145,13 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D42" s="0" t="s">
         <v>6</v>
@@ -1222,13 +1159,13 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>6</v>
@@ -1236,111 +1173,111 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D51" s="0" t="s">
         <v>6</v>
@@ -1348,13 +1285,13 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D52" s="0" t="s">
         <v>6</v>
@@ -1362,13 +1299,13 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D53" s="0" t="s">
         <v>6</v>
@@ -1376,13 +1313,13 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>6</v>
@@ -1390,13 +1327,13 @@
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D55" s="0" t="s">
         <v>6</v>
@@ -1404,13 +1341,13 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D56" s="0" t="s">
         <v>6</v>
@@ -1418,13 +1355,13 @@
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D57" s="0" t="s">
         <v>6</v>
@@ -1432,13 +1369,13 @@
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>6</v>
@@ -1446,13 +1383,13 @@
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D59" s="0" t="s">
         <v>6</v>
@@ -1460,13 +1397,13 @@
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D60" s="0" t="s">
         <v>6</v>
@@ -1474,13 +1411,13 @@
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D61" s="0" t="s">
         <v>6</v>
@@ -1488,13 +1425,13 @@
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D62" s="0" t="s">
         <v>6</v>
@@ -1502,13 +1439,13 @@
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D63" s="0" t="s">
         <v>6</v>
@@ -1516,13 +1453,13 @@
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D64" s="0" t="s">
         <v>6</v>
@@ -1530,111 +1467,111 @@
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D72" s="0" t="s">
         <v>6</v>
@@ -1642,13 +1579,13 @@
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D73" s="0" t="s">
         <v>6</v>
@@ -1656,13 +1593,13 @@
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D74" s="0" t="s">
         <v>6</v>
@@ -1670,13 +1607,13 @@
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D75" s="0" t="s">
         <v>6</v>
@@ -1684,13 +1621,13 @@
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D76" s="0" t="s">
         <v>6</v>
@@ -1698,13 +1635,13 @@
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D77" s="0" t="s">
         <v>6</v>
@@ -1726,13 +1663,13 @@
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D79" s="0" t="s">
         <v>6</v>
@@ -1740,13 +1677,13 @@
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D80" s="0" t="s">
         <v>6</v>
@@ -1754,13 +1691,13 @@
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D81" s="0" t="s">
         <v>6</v>
@@ -1768,13 +1705,13 @@
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D82" s="0" t="s">
         <v>6</v>
@@ -1782,13 +1719,13 @@
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D83" s="0" t="s">
         <v>6</v>
@@ -1796,13 +1733,13 @@
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D84" s="0" t="s">
         <v>6</v>
@@ -1813,97 +1750,97 @@
         <v>39</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92">
@@ -1911,60 +1848,60 @@
         <v>40</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B96" s="0" t="s">
         <v>30</v>
@@ -1973,35 +1910,35 @@
         <v>30</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99">
@@ -2009,97 +1946,97 @@
         <v>41</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="106">
@@ -2107,97 +2044,97 @@
         <v>42</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="113">
@@ -2205,24 +2142,24 @@
         <v>43</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D114" s="0" t="s">
         <v>6</v>
@@ -2230,13 +2167,13 @@
     </row>
     <row r="115">
       <c r="A115" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D115" s="0" t="s">
         <v>6</v>
@@ -2244,13 +2181,13 @@
     </row>
     <row r="116">
       <c r="A116" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D116" s="0" t="s">
         <v>6</v>
@@ -2258,13 +2195,13 @@
     </row>
     <row r="117">
       <c r="A117" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D117" s="0" t="s">
         <v>6</v>
@@ -2272,13 +2209,13 @@
     </row>
     <row r="118">
       <c r="A118" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D118" s="0" t="s">
         <v>6</v>
@@ -2286,13 +2223,13 @@
     </row>
     <row r="119">
       <c r="A119" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D119" s="0" t="s">
         <v>6</v>
@@ -2303,97 +2240,111 @@
         <v>44</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C127" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D127" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2430,464 +2381,464 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2908,37 +2859,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2959,7 +2910,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>3</v>
@@ -2986,20 +2937,20 @@
         <v>21</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>6</v>
@@ -3007,7 +2958,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>6</v>
@@ -3015,15 +2966,15 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>6</v>
@@ -3031,7 +2982,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>6</v>
@@ -3039,7 +2990,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>6</v>
@@ -3047,15 +2998,15 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>6</v>
@@ -3063,7 +3014,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>6</v>
@@ -3071,39 +3022,39 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>6</v>
@@ -3111,10 +3062,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Calendar1/calendar.xlsx
+++ b/Calendar1/calendar.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>Title</t>
   </si>
@@ -56,102 +56,105 @@
     <t>Sadık</t>
   </si>
   <si>
+    <t>06.11.2023</t>
+  </si>
+  <si>
+    <t>Dijital Uygulama</t>
+  </si>
+  <si>
     <t>24.11.2023</t>
   </si>
   <si>
-    <t>Dijital Uygulama</t>
+    <t>20.11.2023</t>
   </si>
   <si>
     <t>10.11.2023</t>
   </si>
   <si>
+    <t>01.11.2023</t>
+  </si>
+  <si>
+    <t>13.11.2023</t>
+  </si>
+  <si>
+    <t>17.11.2023</t>
+  </si>
+  <si>
+    <t>Engin</t>
+  </si>
+  <si>
+    <t>27.11.2023</t>
+  </si>
+  <si>
+    <t>07.11.2023</t>
+  </si>
+  <si>
+    <t>23.11.2023</t>
+  </si>
+  <si>
     <t>02.11.2023</t>
   </si>
   <si>
+    <t>09.11.2023</t>
+  </si>
+  <si>
+    <t>29.11.2023</t>
+  </si>
+  <si>
     <t>03.11.2023</t>
   </si>
   <si>
-    <t>27.11.2023</t>
+    <t>Emre</t>
+  </si>
+  <si>
+    <t>Bankacılık</t>
+  </si>
+  <si>
+    <t>30.11.2023</t>
+  </si>
+  <si>
+    <t>14.11.2023</t>
+  </si>
+  <si>
+    <t>08.11.2023</t>
+  </si>
+  <si>
+    <t>22.11.2023</t>
+  </si>
+  <si>
+    <t>Mücahit</t>
   </si>
   <si>
     <t>21.11.2023</t>
   </si>
   <si>
+    <t>Gizem</t>
+  </si>
+  <si>
+    <t>16.11.2023</t>
+  </si>
+  <si>
+    <t>Furkan</t>
+  </si>
+  <si>
     <t>28.11.2023</t>
   </si>
   <si>
-    <t>Engin</t>
-  </si>
-  <si>
-    <t>30.11.2023</t>
-  </si>
-  <si>
-    <t>08.11.2023</t>
-  </si>
-  <si>
-    <t>17.11.2023</t>
-  </si>
-  <si>
-    <t>23.11.2023</t>
-  </si>
-  <si>
-    <t>13.11.2023</t>
+    <t>Zelal</t>
+  </si>
+  <si>
+    <t>Birkan</t>
   </si>
   <si>
     <t>15.11.2023</t>
   </si>
   <si>
-    <t>06.11.2023</t>
-  </si>
-  <si>
-    <t>Emre</t>
-  </si>
-  <si>
-    <t>Bankacılık</t>
-  </si>
-  <si>
-    <t>07.11.2023</t>
-  </si>
-  <si>
-    <t>20.11.2023</t>
-  </si>
-  <si>
-    <t>09.11.2023</t>
-  </si>
-  <si>
-    <t>22.11.2023</t>
-  </si>
-  <si>
-    <t>Mücahit</t>
-  </si>
-  <si>
-    <t>29.11.2023</t>
-  </si>
-  <si>
-    <t>01.11.2023</t>
-  </si>
-  <si>
-    <t>16.11.2023</t>
-  </si>
-  <si>
-    <t>Gizem</t>
-  </si>
-  <si>
-    <t>14.11.2023</t>
-  </si>
-  <si>
-    <t>Furkan</t>
-  </si>
-  <si>
-    <t>Zelal</t>
-  </si>
-  <si>
-    <t>Birkan</t>
-  </si>
-  <si>
     <t>Samet</t>
   </si>
   <si>
+    <t>Eda</t>
+  </si>
+  <si>
     <t>Kerem</t>
   </si>
   <si>
@@ -179,6 +182,69 @@
     <t>Aslınur</t>
   </si>
   <si>
+    <t>28.12.2023</t>
+  </si>
+  <si>
+    <t>21.12.2023</t>
+  </si>
+  <si>
+    <t>01.12.2023</t>
+  </si>
+  <si>
+    <t>05.12.2023</t>
+  </si>
+  <si>
+    <t>07.12.2023</t>
+  </si>
+  <si>
+    <t>06.12.2023</t>
+  </si>
+  <si>
+    <t>26.12.2023</t>
+  </si>
+  <si>
+    <t>22.12.2023</t>
+  </si>
+  <si>
+    <t>19.12.2023</t>
+  </si>
+  <si>
+    <t>27.12.2023</t>
+  </si>
+  <si>
+    <t>11.12.2023</t>
+  </si>
+  <si>
+    <t>12.12.2023</t>
+  </si>
+  <si>
+    <t>08.12.2023</t>
+  </si>
+  <si>
+    <t>29.12.2023</t>
+  </si>
+  <si>
+    <t>25.12.2023</t>
+  </si>
+  <si>
+    <t>20.12.2023</t>
+  </si>
+  <si>
+    <t>18.12.2023</t>
+  </si>
+  <si>
+    <t>15.12.2023</t>
+  </si>
+  <si>
+    <t>04.12.2023</t>
+  </si>
+  <si>
+    <t>13.12.2023</t>
+  </si>
+  <si>
+    <t>14.12.2023</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ömer </t>
   </si>
   <si>
@@ -195,9 +261,6 @@
   </si>
   <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>Eda</t>
   </si>
 </sst>
 </file>
@@ -554,7 +617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{985BC178-C795-4907-A9FA-007C2EBF8CA4}">
-  <dimension ref="A1:D127"/>
+  <dimension ref="A1:D260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
@@ -784,10 +847,10 @@
         <v>21</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>22</v>
@@ -798,10 +861,10 @@
         <v>21</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>22</v>
@@ -812,10 +875,10 @@
         <v>21</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>22</v>
@@ -826,10 +889,10 @@
         <v>21</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>22</v>
@@ -854,10 +917,10 @@
         <v>21</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>22</v>
@@ -868,10 +931,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>22</v>
@@ -882,10 +945,10 @@
         <v>27</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>22</v>
@@ -896,10 +959,10 @@
         <v>27</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>22</v>
@@ -910,10 +973,10 @@
         <v>27</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>22</v>
@@ -924,10 +987,10 @@
         <v>27</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>22</v>
@@ -938,10 +1001,10 @@
         <v>27</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>22</v>
@@ -952,10 +1015,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>22</v>
@@ -977,13 +1040,13 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D30" s="0" t="s">
         <v>6</v>
@@ -991,13 +1054,13 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>6</v>
@@ -1005,13 +1068,13 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>6</v>
@@ -1019,13 +1082,13 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D33" s="0" t="s">
         <v>6</v>
@@ -1033,13 +1096,13 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>6</v>
@@ -1047,13 +1110,13 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>6</v>
@@ -1061,13 +1124,13 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>6</v>
@@ -1075,13 +1138,13 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D37" s="0" t="s">
         <v>6</v>
@@ -1089,13 +1152,13 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>6</v>
@@ -1103,13 +1166,13 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D39" s="0" t="s">
         <v>6</v>
@@ -1117,13 +1180,13 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D40" s="0" t="s">
         <v>6</v>
@@ -1131,13 +1194,13 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D41" s="0" t="s">
         <v>6</v>
@@ -1145,13 +1208,13 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D42" s="0" t="s">
         <v>6</v>
@@ -1159,13 +1222,13 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>6</v>
@@ -1173,13 +1236,13 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D44" s="0" t="s">
         <v>22</v>
@@ -1187,13 +1250,13 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D45" s="0" t="s">
         <v>22</v>
@@ -1201,13 +1264,13 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D46" s="0" t="s">
         <v>22</v>
@@ -1215,13 +1278,13 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D47" s="0" t="s">
         <v>22</v>
@@ -1229,13 +1292,13 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D48" s="0" t="s">
         <v>22</v>
@@ -1243,13 +1306,13 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D49" s="0" t="s">
         <v>22</v>
@@ -1257,13 +1320,13 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D50" s="0" t="s">
         <v>22</v>
@@ -1271,13 +1334,13 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D51" s="0" t="s">
         <v>6</v>
@@ -1285,7 +1348,7 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>23</v>
@@ -1299,13 +1362,13 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D53" s="0" t="s">
         <v>6</v>
@@ -1313,13 +1376,13 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>6</v>
@@ -1327,13 +1390,13 @@
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D55" s="0" t="s">
         <v>6</v>
@@ -1341,13 +1404,13 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B56" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B56" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="C56" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D56" s="0" t="s">
         <v>6</v>
@@ -1355,13 +1418,13 @@
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D57" s="0" t="s">
         <v>6</v>
@@ -1372,10 +1435,10 @@
         <v>36</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>6</v>
@@ -1386,10 +1449,10 @@
         <v>36</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D59" s="0" t="s">
         <v>6</v>
@@ -1400,10 +1463,10 @@
         <v>36</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D60" s="0" t="s">
         <v>6</v>
@@ -1414,10 +1477,10 @@
         <v>36</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D61" s="0" t="s">
         <v>6</v>
@@ -1428,10 +1491,10 @@
         <v>36</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D62" s="0" t="s">
         <v>6</v>
@@ -1442,10 +1505,10 @@
         <v>36</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D63" s="0" t="s">
         <v>6</v>
@@ -1456,10 +1519,10 @@
         <v>36</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D64" s="0" t="s">
         <v>6</v>
@@ -1470,13 +1533,13 @@
         <v>37</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66">
@@ -1484,13 +1547,13 @@
         <v>37</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67">
@@ -1498,13 +1561,13 @@
         <v>37</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68">
@@ -1512,13 +1575,13 @@
         <v>37</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69">
@@ -1526,13 +1589,13 @@
         <v>37</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70">
@@ -1540,13 +1603,13 @@
         <v>37</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71">
@@ -1554,13 +1617,13 @@
         <v>37</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72">
@@ -1568,13 +1631,13 @@
         <v>38</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73">
@@ -1582,13 +1645,13 @@
         <v>38</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74">
@@ -1596,13 +1659,13 @@
         <v>38</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75">
@@ -1610,13 +1673,13 @@
         <v>38</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76">
@@ -1624,13 +1687,13 @@
         <v>38</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77">
@@ -1638,13 +1701,13 @@
         <v>38</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78">
@@ -1652,13 +1715,13 @@
         <v>38</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79">
@@ -1666,10 +1729,10 @@
         <v>39</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D79" s="0" t="s">
         <v>6</v>
@@ -1680,10 +1743,10 @@
         <v>39</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D80" s="0" t="s">
         <v>6</v>
@@ -1694,10 +1757,10 @@
         <v>39</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D81" s="0" t="s">
         <v>6</v>
@@ -1708,10 +1771,10 @@
         <v>39</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D82" s="0" t="s">
         <v>6</v>
@@ -1722,10 +1785,10 @@
         <v>39</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" s="0" t="s">
         <v>6</v>
@@ -1736,10 +1799,10 @@
         <v>39</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D84" s="0" t="s">
         <v>6</v>
@@ -1750,10 +1813,10 @@
         <v>39</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D85" s="0" t="s">
         <v>6</v>
@@ -1764,13 +1827,13 @@
         <v>40</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87">
@@ -1778,13 +1841,13 @@
         <v>40</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88">
@@ -1792,13 +1855,13 @@
         <v>40</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89">
@@ -1806,13 +1869,13 @@
         <v>40</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90">
@@ -1820,13 +1883,13 @@
         <v>40</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91">
@@ -1834,13 +1897,13 @@
         <v>40</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92">
@@ -1848,13 +1911,13 @@
         <v>40</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93">
@@ -1862,10 +1925,10 @@
         <v>41</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D93" s="0" t="s">
         <v>22</v>
@@ -1876,10 +1939,10 @@
         <v>41</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D94" s="0" t="s">
         <v>22</v>
@@ -1890,10 +1953,10 @@
         <v>41</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D95" s="0" t="s">
         <v>22</v>
@@ -1904,10 +1967,10 @@
         <v>41</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D96" s="0" t="s">
         <v>22</v>
@@ -1918,10 +1981,10 @@
         <v>41</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D97" s="0" t="s">
         <v>22</v>
@@ -1946,10 +2009,10 @@
         <v>41</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D99" s="0" t="s">
         <v>22</v>
@@ -1960,10 +2023,10 @@
         <v>42</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D100" s="0" t="s">
         <v>22</v>
@@ -1974,10 +2037,10 @@
         <v>42</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D101" s="0" t="s">
         <v>22</v>
@@ -1988,10 +2051,10 @@
         <v>42</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D102" s="0" t="s">
         <v>22</v>
@@ -2002,10 +2065,10 @@
         <v>42</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D103" s="0" t="s">
         <v>22</v>
@@ -2016,10 +2079,10 @@
         <v>42</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D104" s="0" t="s">
         <v>22</v>
@@ -2030,10 +2093,10 @@
         <v>42</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D105" s="0" t="s">
         <v>22</v>
@@ -2044,10 +2107,10 @@
         <v>42</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D106" s="0" t="s">
         <v>22</v>
@@ -2058,10 +2121,10 @@
         <v>43</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D107" s="0" t="s">
         <v>22</v>
@@ -2072,10 +2135,10 @@
         <v>43</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D108" s="0" t="s">
         <v>22</v>
@@ -2086,10 +2149,10 @@
         <v>43</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D109" s="0" t="s">
         <v>22</v>
@@ -2100,10 +2163,10 @@
         <v>43</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D110" s="0" t="s">
         <v>22</v>
@@ -2128,10 +2191,10 @@
         <v>43</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D112" s="0" t="s">
         <v>22</v>
@@ -2142,10 +2205,10 @@
         <v>43</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D113" s="0" t="s">
         <v>22</v>
@@ -2156,13 +2219,13 @@
         <v>44</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="115">
@@ -2170,13 +2233,13 @@
         <v>44</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="116">
@@ -2184,13 +2247,13 @@
         <v>44</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="117">
@@ -2198,13 +2261,13 @@
         <v>44</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="118">
@@ -2212,13 +2275,13 @@
         <v>44</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="119">
@@ -2226,13 +2289,13 @@
         <v>44</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="120">
@@ -2240,13 +2303,13 @@
         <v>44</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="121">
@@ -2254,13 +2317,13 @@
         <v>45</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="122">
@@ -2268,13 +2331,13 @@
         <v>45</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="123">
@@ -2282,13 +2345,13 @@
         <v>45</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124">
@@ -2296,13 +2359,13 @@
         <v>45</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="125">
@@ -2310,13 +2373,13 @@
         <v>45</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="126">
@@ -2330,7 +2393,7 @@
         <v>32</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127">
@@ -2338,12 +2401,1874 @@
         <v>45</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D127" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C128" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D128" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C129" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D129" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C130" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C131" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D131" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B132" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C132" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D132" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B133" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C133" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D133" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B134" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D134" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B135" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C135" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D135" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B136" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C136" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D136" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B137" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C137" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D137" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B138" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C138" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D138" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B139" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C139" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D139" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B140" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C140" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D140" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B141" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C141" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D141" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B142" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C142" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D142" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B143" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C143" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D143" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B144" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C144" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D144" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B145" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C145" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D145" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B146" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C146" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D146" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B147" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C147" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D147" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B148" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C148" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D148" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B149" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C149" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D149" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B150" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C150" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D150" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B151" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C151" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D151" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B152" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C152" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D152" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B153" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C153" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D153" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B154" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C154" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D154" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B155" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C155" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D155" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B156" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C156" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D156" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B157" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C157" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D157" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B158" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C158" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D158" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B159" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C159" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D159" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B160" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C160" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D160" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B161" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C161" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D161" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B162" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C162" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D162" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B163" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C163" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D163" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B164" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C164" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D164" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B165" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C165" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D165" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B166" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C166" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D166" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B167" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C167" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D167" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B168" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C168" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D168" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B169" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C169" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D169" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B170" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C170" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D170" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B171" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C171" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D171" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B172" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C172" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D172" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B173" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C173" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D173" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B174" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C174" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D174" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B175" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C175" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D175" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B176" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C176" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D176" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B177" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C177" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D177" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B178" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C178" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D178" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B179" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C179" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D179" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B180" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C180" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D180" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B181" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C181" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D181" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B182" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C182" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D182" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B183" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C183" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D183" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B184" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C184" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D184" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B185" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C185" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D185" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B186" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C186" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D186" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B187" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C187" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D187" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B188" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C188" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D188" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B189" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C189" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D189" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B190" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C190" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D190" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B191" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C191" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D191" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B192" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C192" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D192" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B193" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C193" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D193" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B194" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C194" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D194" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B195" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C195" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D195" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B196" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C196" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D196" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B197" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C197" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D197" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B198" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C198" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D198" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B199" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C199" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D199" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B200" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C200" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D200" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B201" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C201" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D201" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B202" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C202" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D202" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B203" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C203" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D203" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B204" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C204" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D204" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B205" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C205" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D205" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B206" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C206" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D206" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B207" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C207" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D207" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B208" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C208" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D208" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B209" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C209" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D209" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B210" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C210" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D210" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B211" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C211" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D211" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B212" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C212" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D212" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B213" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C213" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D213" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B214" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C214" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D214" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B215" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C215" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D215" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B216" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C216" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D216" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B217" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C217" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D217" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B218" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C218" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D218" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B219" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C219" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D219" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B220" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C220" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D220" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B221" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C221" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D221" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B222" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C222" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D222" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B223" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C223" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D223" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B224" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C224" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D224" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B225" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C225" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D225" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B226" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C226" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D226" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B227" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C227" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D227" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B228" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C228" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D228" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B229" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C229" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D229" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B230" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C230" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D230" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B231" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C231" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D231" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B232" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C232" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D232" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B233" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C233" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D233" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B234" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C234" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D234" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B235" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C235" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D235" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B236" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C236" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D236" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B237" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C237" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D237" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B238" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C238" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D238" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B239" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C239" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D239" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B240" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C240" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D240" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B241" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C241" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D241" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B242" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C242" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D242" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B243" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C243" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D243" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B244" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C244" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D244" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B245" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C245" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D245" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B246" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C246" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D246" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B247" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C247" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D247" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B248" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C248" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D248" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B249" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C249" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D249" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B250" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C250" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D250" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B251" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C251" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D251" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B252" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C252" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D252" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B253" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C253" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D253" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B254" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C254" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D254" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B255" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C255" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D255" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B256" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C256" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D256" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B257" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C257" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D257" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B258" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C258" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D258" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B259" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C259" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D259" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B260" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C260" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D260" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2381,79 +4306,79 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -2461,109 +4386,109 @@
         <v>36</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -2571,32 +4496,32 @@
         <v>36</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22">
@@ -2604,15 +4529,15 @@
         <v>36</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>30</v>
@@ -2623,57 +4548,57 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
@@ -2681,37 +4606,37 @@
         <v>36</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>26</v>
@@ -2722,13 +4647,13 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34">
@@ -2736,54 +4661,54 @@
         <v>36</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39">
@@ -2791,54 +4716,54 @@
         <v>36</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2859,27 +4784,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
@@ -2889,7 +4814,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2910,7 +4835,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>3</v>
@@ -2950,7 +4875,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>6</v>
@@ -2958,7 +4883,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>6</v>
@@ -2966,7 +4891,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>22</v>
@@ -2974,7 +4899,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>6</v>
@@ -2990,7 +4915,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>6</v>
@@ -2998,7 +4923,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>22</v>
@@ -3006,7 +4931,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>6</v>
@@ -3014,7 +4939,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>6</v>
@@ -3022,7 +4947,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>22</v>
@@ -3030,7 +4955,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>22</v>
@@ -3038,7 +4963,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>22</v>
@@ -3046,7 +4971,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>22</v>
@@ -3054,7 +4979,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>6</v>
@@ -3062,7 +4987,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>22</v>

--- a/Calendar1/calendar.xlsx
+++ b/Calendar1/calendar.xlsx
@@ -182,76 +182,76 @@
     <t>Aslınur</t>
   </si>
   <si>
+    <t>25.12.2023</t>
+  </si>
+  <si>
+    <t>13.12.2023</t>
+  </si>
+  <si>
+    <t>12.12.2023</t>
+  </si>
+  <si>
+    <t>05.12.2023</t>
+  </si>
+  <si>
     <t>28.12.2023</t>
   </si>
   <si>
+    <t>18.12.2023</t>
+  </si>
+  <si>
+    <t>27.12.2023</t>
+  </si>
+  <si>
+    <t>15.12.2023</t>
+  </si>
+  <si>
+    <t>04.12.2023</t>
+  </si>
+  <si>
+    <t>20.12.2023</t>
+  </si>
+  <si>
+    <t>29.12.2023</t>
+  </si>
+  <si>
+    <t>06.12.2023</t>
+  </si>
+  <si>
+    <t>26.12.2023</t>
+  </si>
+  <si>
+    <t>22.12.2023</t>
+  </si>
+  <si>
+    <t>14.12.2023</t>
+  </si>
+  <si>
     <t>21.12.2023</t>
   </si>
   <si>
+    <t>19.12.2023</t>
+  </si>
+  <si>
+    <t>07.12.2023</t>
+  </si>
+  <si>
+    <t>08.12.2023</t>
+  </si>
+  <si>
     <t>01.12.2023</t>
   </si>
   <si>
-    <t>05.12.2023</t>
-  </si>
-  <si>
-    <t>07.12.2023</t>
-  </si>
-  <si>
-    <t>06.12.2023</t>
-  </si>
-  <si>
-    <t>26.12.2023</t>
-  </si>
-  <si>
-    <t>22.12.2023</t>
-  </si>
-  <si>
-    <t>19.12.2023</t>
-  </si>
-  <si>
-    <t>27.12.2023</t>
-  </si>
-  <si>
     <t>11.12.2023</t>
   </si>
   <si>
-    <t>12.12.2023</t>
-  </si>
-  <si>
-    <t>08.12.2023</t>
-  </si>
-  <si>
-    <t>29.12.2023</t>
-  </si>
-  <si>
-    <t>25.12.2023</t>
-  </si>
-  <si>
-    <t>20.12.2023</t>
-  </si>
-  <si>
-    <t>18.12.2023</t>
-  </si>
-  <si>
-    <t>15.12.2023</t>
-  </si>
-  <si>
-    <t>04.12.2023</t>
-  </si>
-  <si>
-    <t>13.12.2023</t>
-  </si>
-  <si>
-    <t>14.12.2023</t>
+    <t>Arzu</t>
+  </si>
+  <si>
+    <t>Tufan</t>
   </si>
   <si>
     <t xml:space="preserve">Ömer </t>
-  </si>
-  <si>
-    <t>Tufan</t>
-  </si>
-  <si>
-    <t>Arzu</t>
   </si>
   <si>
     <t>Cüneyt</t>
@@ -2709,10 +2709,10 @@
         <v>21</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D149" s="0" t="s">
         <v>22</v>
@@ -2723,10 +2723,10 @@
         <v>21</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="D150" s="0" t="s">
         <v>22</v>
@@ -2737,10 +2737,10 @@
         <v>21</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D151" s="0" t="s">
         <v>22</v>
@@ -2751,10 +2751,10 @@
         <v>21</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D152" s="0" t="s">
         <v>22</v>
@@ -2765,10 +2765,10 @@
         <v>21</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D153" s="0" t="s">
         <v>22</v>
@@ -2793,10 +2793,10 @@
         <v>21</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D155" s="0" t="s">
         <v>22</v>
@@ -2807,10 +2807,10 @@
         <v>27</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="D156" s="0" t="s">
         <v>22</v>
@@ -2821,10 +2821,10 @@
         <v>27</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D157" s="0" t="s">
         <v>22</v>
@@ -2835,10 +2835,10 @@
         <v>27</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D158" s="0" t="s">
         <v>22</v>
@@ -2849,10 +2849,10 @@
         <v>27</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D159" s="0" t="s">
         <v>22</v>
@@ -2863,10 +2863,10 @@
         <v>27</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D160" s="0" t="s">
         <v>22</v>
@@ -2877,10 +2877,10 @@
         <v>27</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D161" s="0" t="s">
         <v>22</v>
@@ -2891,10 +2891,10 @@
         <v>27</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D162" s="0" t="s">
         <v>22</v>
@@ -2905,10 +2905,10 @@
         <v>29</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D163" s="0" t="s">
         <v>6</v>
@@ -2919,10 +2919,10 @@
         <v>29</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D164" s="0" t="s">
         <v>6</v>
@@ -2933,10 +2933,10 @@
         <v>29</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="D165" s="0" t="s">
         <v>6</v>
@@ -2947,10 +2947,10 @@
         <v>29</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D166" s="0" t="s">
         <v>6</v>
@@ -2961,10 +2961,10 @@
         <v>29</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D167" s="0" t="s">
         <v>6</v>
@@ -2975,10 +2975,10 @@
         <v>29</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D168" s="0" t="s">
         <v>6</v>
@@ -2989,10 +2989,10 @@
         <v>29</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D169" s="0" t="s">
         <v>6</v>
@@ -3003,10 +3003,10 @@
         <v>31</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="D170" s="0" t="s">
         <v>6</v>
@@ -3017,10 +3017,10 @@
         <v>31</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D171" s="0" t="s">
         <v>6</v>
@@ -3031,10 +3031,10 @@
         <v>31</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D172" s="0" t="s">
         <v>6</v>
@@ -3059,10 +3059,10 @@
         <v>31</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D174" s="0" t="s">
         <v>6</v>
@@ -3073,10 +3073,10 @@
         <v>31</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D175" s="0" t="s">
         <v>6</v>
@@ -3087,10 +3087,10 @@
         <v>31</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D176" s="0" t="s">
         <v>6</v>
@@ -3101,10 +3101,10 @@
         <v>33</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="D177" s="0" t="s">
         <v>22</v>
@@ -3115,10 +3115,10 @@
         <v>33</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D178" s="0" t="s">
         <v>22</v>
@@ -3129,10 +3129,10 @@
         <v>33</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D179" s="0" t="s">
         <v>22</v>
@@ -3143,10 +3143,10 @@
         <v>33</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D180" s="0" t="s">
         <v>22</v>
@@ -3157,10 +3157,10 @@
         <v>33</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="D181" s="0" t="s">
         <v>22</v>
@@ -3171,10 +3171,10 @@
         <v>33</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D182" s="0" t="s">
         <v>22</v>
@@ -3185,10 +3185,10 @@
         <v>33</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D183" s="0" t="s">
         <v>22</v>
@@ -3199,10 +3199,10 @@
         <v>34</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D184" s="0" t="s">
         <v>6</v>
@@ -3213,10 +3213,10 @@
         <v>34</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D185" s="0" t="s">
         <v>6</v>
@@ -3227,10 +3227,10 @@
         <v>34</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D186" s="0" t="s">
         <v>6</v>
@@ -3241,10 +3241,10 @@
         <v>34</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D187" s="0" t="s">
         <v>6</v>
@@ -3255,10 +3255,10 @@
         <v>34</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="D188" s="0" t="s">
         <v>6</v>
@@ -3269,10 +3269,10 @@
         <v>34</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D189" s="0" t="s">
         <v>6</v>
@@ -3283,10 +3283,10 @@
         <v>34</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D190" s="0" t="s">
         <v>6</v>
@@ -3297,10 +3297,10 @@
         <v>36</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D191" s="0" t="s">
         <v>6</v>
@@ -3311,10 +3311,10 @@
         <v>36</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D192" s="0" t="s">
         <v>6</v>
@@ -3325,10 +3325,10 @@
         <v>36</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="D193" s="0" t="s">
         <v>6</v>
@@ -3339,10 +3339,10 @@
         <v>36</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D194" s="0" t="s">
         <v>6</v>
@@ -3353,10 +3353,10 @@
         <v>36</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D195" s="0" t="s">
         <v>6</v>
@@ -3367,10 +3367,10 @@
         <v>36</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D196" s="0" t="s">
         <v>6</v>
@@ -3381,10 +3381,10 @@
         <v>36</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D197" s="0" t="s">
         <v>6</v>
@@ -3395,10 +3395,10 @@
         <v>38</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D198" s="0" t="s">
         <v>22</v>
@@ -3409,10 +3409,10 @@
         <v>38</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D199" s="0" t="s">
         <v>22</v>
@@ -3423,10 +3423,10 @@
         <v>38</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D200" s="0" t="s">
         <v>22</v>
@@ -3437,10 +3437,10 @@
         <v>38</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D201" s="0" t="s">
         <v>22</v>
@@ -3451,10 +3451,10 @@
         <v>38</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D202" s="0" t="s">
         <v>22</v>
@@ -3465,10 +3465,10 @@
         <v>38</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D203" s="0" t="s">
         <v>22</v>
@@ -3479,10 +3479,10 @@
         <v>38</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="D204" s="0" t="s">
         <v>22</v>
@@ -3493,10 +3493,10 @@
         <v>39</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D205" s="0" t="s">
         <v>6</v>
@@ -3507,10 +3507,10 @@
         <v>39</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D206" s="0" t="s">
         <v>6</v>
@@ -3521,10 +3521,10 @@
         <v>39</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D207" s="0" t="s">
         <v>6</v>
@@ -3535,10 +3535,10 @@
         <v>39</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D208" s="0" t="s">
         <v>6</v>
@@ -3549,10 +3549,10 @@
         <v>39</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D209" s="0" t="s">
         <v>6</v>
@@ -3563,10 +3563,10 @@
         <v>39</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D210" s="0" t="s">
         <v>6</v>
@@ -3577,10 +3577,10 @@
         <v>39</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D211" s="0" t="s">
         <v>6</v>
@@ -3591,10 +3591,10 @@
         <v>40</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D212" s="0" t="s">
         <v>6</v>
@@ -3605,10 +3605,10 @@
         <v>40</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D213" s="0" t="s">
         <v>6</v>
@@ -3619,10 +3619,10 @@
         <v>40</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D214" s="0" t="s">
         <v>6</v>
@@ -3633,10 +3633,10 @@
         <v>40</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="D215" s="0" t="s">
         <v>6</v>
@@ -3647,10 +3647,10 @@
         <v>40</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D216" s="0" t="s">
         <v>6</v>
@@ -3661,10 +3661,10 @@
         <v>40</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D217" s="0" t="s">
         <v>6</v>
@@ -3675,10 +3675,10 @@
         <v>40</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D218" s="0" t="s">
         <v>6</v>
@@ -3689,10 +3689,10 @@
         <v>41</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D219" s="0" t="s">
         <v>22</v>
@@ -3703,10 +3703,10 @@
         <v>41</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D220" s="0" t="s">
         <v>22</v>
@@ -3717,10 +3717,10 @@
         <v>41</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D221" s="0" t="s">
         <v>22</v>
@@ -3731,10 +3731,10 @@
         <v>41</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="D222" s="0" t="s">
         <v>22</v>
@@ -3745,10 +3745,10 @@
         <v>41</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D223" s="0" t="s">
         <v>22</v>
@@ -3759,10 +3759,10 @@
         <v>41</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D224" s="0" t="s">
         <v>22</v>
@@ -3773,10 +3773,10 @@
         <v>41</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D225" s="0" t="s">
         <v>22</v>
@@ -3787,10 +3787,10 @@
         <v>42</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D226" s="0" t="s">
         <v>22</v>
@@ -3801,10 +3801,10 @@
         <v>42</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D227" s="0" t="s">
         <v>22</v>
@@ -3815,10 +3815,10 @@
         <v>42</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D228" s="0" t="s">
         <v>22</v>
@@ -3829,10 +3829,10 @@
         <v>42</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="D229" s="0" t="s">
         <v>22</v>
@@ -3843,10 +3843,10 @@
         <v>42</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D230" s="0" t="s">
         <v>22</v>
@@ -3857,10 +3857,10 @@
         <v>42</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D231" s="0" t="s">
         <v>22</v>
@@ -3871,10 +3871,10 @@
         <v>42</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D232" s="0" t="s">
         <v>22</v>
@@ -3899,10 +3899,10 @@
         <v>43</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D234" s="0" t="s">
         <v>22</v>
@@ -3913,10 +3913,10 @@
         <v>43</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D235" s="0" t="s">
         <v>22</v>
@@ -3927,10 +3927,10 @@
         <v>43</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D236" s="0" t="s">
         <v>22</v>
@@ -3941,10 +3941,10 @@
         <v>43</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D237" s="0" t="s">
         <v>22</v>
@@ -3955,10 +3955,10 @@
         <v>43</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D238" s="0" t="s">
         <v>22</v>
@@ -3969,10 +3969,10 @@
         <v>43</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D239" s="0" t="s">
         <v>22</v>
@@ -3983,10 +3983,10 @@
         <v>44</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D240" s="0" t="s">
         <v>22</v>
@@ -3997,10 +3997,10 @@
         <v>44</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D241" s="0" t="s">
         <v>22</v>
@@ -4011,10 +4011,10 @@
         <v>44</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D242" s="0" t="s">
         <v>22</v>
@@ -4025,10 +4025,10 @@
         <v>44</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D243" s="0" t="s">
         <v>22</v>
@@ -4039,10 +4039,10 @@
         <v>44</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D244" s="0" t="s">
         <v>22</v>
@@ -4053,10 +4053,10 @@
         <v>44</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C245" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D245" s="0" t="s">
         <v>22</v>
@@ -4067,10 +4067,10 @@
         <v>44</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C246" s="0" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D246" s="0" t="s">
         <v>22</v>
@@ -4081,10 +4081,10 @@
         <v>45</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="D247" s="0" t="s">
         <v>6</v>
@@ -4109,10 +4109,10 @@
         <v>45</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D249" s="0" t="s">
         <v>6</v>
@@ -4123,10 +4123,10 @@
         <v>45</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D250" s="0" t="s">
         <v>6</v>
@@ -4137,10 +4137,10 @@
         <v>45</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D251" s="0" t="s">
         <v>6</v>
@@ -4151,10 +4151,10 @@
         <v>45</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C252" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D252" s="0" t="s">
         <v>6</v>
@@ -4165,10 +4165,10 @@
         <v>45</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D253" s="0" t="s">
         <v>6</v>
@@ -4179,10 +4179,10 @@
         <v>46</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C254" s="0" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D254" s="0" t="s">
         <v>22</v>
@@ -4193,10 +4193,10 @@
         <v>46</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C255" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D255" s="0" t="s">
         <v>22</v>
@@ -4207,10 +4207,10 @@
         <v>46</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C256" s="0" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D256" s="0" t="s">
         <v>22</v>
@@ -4221,10 +4221,10 @@
         <v>46</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C257" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D257" s="0" t="s">
         <v>22</v>
@@ -4235,10 +4235,10 @@
         <v>46</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C258" s="0" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D258" s="0" t="s">
         <v>22</v>
@@ -4249,10 +4249,10 @@
         <v>46</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C259" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D259" s="0" t="s">
         <v>22</v>
@@ -4263,10 +4263,10 @@
         <v>46</v>
       </c>
       <c r="B260" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C260" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D260" s="0" t="s">
         <v>22</v>
@@ -4309,241 +4309,241 @@
         <v>68</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24">
@@ -4551,208 +4551,208 @@
         <v>70</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43">
@@ -4794,12 +4794,12 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">

--- a/Calendar1/calendar.xlsx
+++ b/Calendar1/calendar.xlsx
@@ -4281,7 +4281,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78A2414B-754E-49F4-8B9E-8B96DED4D78A}">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
@@ -4753,17 +4753,6 @@
       </c>
       <c r="C42" s="0" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Calendar1/calendar.xlsx
+++ b/Calendar1/calendar.xlsx
@@ -56,211 +56,211 @@
     <t>Sadık</t>
   </si>
   <si>
+    <t>25.12.2023</t>
+  </si>
+  <si>
+    <t>Dijital Uygulama</t>
+  </si>
+  <si>
+    <t>13.12.2023</t>
+  </si>
+  <si>
+    <t>12.12.2023</t>
+  </si>
+  <si>
+    <t>05.12.2023</t>
+  </si>
+  <si>
+    <t>28.12.2023</t>
+  </si>
+  <si>
+    <t>18.12.2023</t>
+  </si>
+  <si>
+    <t>27.12.2023</t>
+  </si>
+  <si>
+    <t>Engin</t>
+  </si>
+  <si>
+    <t>15.12.2023</t>
+  </si>
+  <si>
+    <t>04.12.2023</t>
+  </si>
+  <si>
+    <t>20.12.2023</t>
+  </si>
+  <si>
+    <t>29.12.2023</t>
+  </si>
+  <si>
+    <t>06.12.2023</t>
+  </si>
+  <si>
+    <t>26.12.2023</t>
+  </si>
+  <si>
+    <t>22.12.2023</t>
+  </si>
+  <si>
+    <t>Emre</t>
+  </si>
+  <si>
+    <t>Bankacılık</t>
+  </si>
+  <si>
+    <t>14.12.2023</t>
+  </si>
+  <si>
+    <t>21.12.2023</t>
+  </si>
+  <si>
+    <t>Mücahit</t>
+  </si>
+  <si>
+    <t>19.12.2023</t>
+  </si>
+  <si>
+    <t>07.12.2023</t>
+  </si>
+  <si>
+    <t>Gizem</t>
+  </si>
+  <si>
+    <t>08.12.2023</t>
+  </si>
+  <si>
+    <t>01.12.2023</t>
+  </si>
+  <si>
+    <t>Furkan</t>
+  </si>
+  <si>
+    <t>11.12.2023</t>
+  </si>
+  <si>
+    <t>Zelal</t>
+  </si>
+  <si>
+    <t>Birkan</t>
+  </si>
+  <si>
+    <t>Samet</t>
+  </si>
+  <si>
+    <t>Kerem</t>
+  </si>
+  <si>
+    <t>Ahmet</t>
+  </si>
+  <si>
+    <t>Kadir</t>
+  </si>
+  <si>
+    <t>Aleyna</t>
+  </si>
+  <si>
+    <t>Buğra</t>
+  </si>
+  <si>
+    <t>Emir</t>
+  </si>
+  <si>
+    <t>Nursima</t>
+  </si>
+  <si>
+    <t>Gözde</t>
+  </si>
+  <si>
+    <t>Aslınur</t>
+  </si>
+  <si>
+    <t>08.11.2023</t>
+  </si>
+  <si>
+    <t>13.11.2023</t>
+  </si>
+  <si>
+    <t>09.11.2023</t>
+  </si>
+  <si>
+    <t>10.11.2023</t>
+  </si>
+  <si>
+    <t>23.11.2023</t>
+  </si>
+  <si>
+    <t>24.11.2023</t>
+  </si>
+  <si>
+    <t>20.11.2023</t>
+  </si>
+  <si>
+    <t>17.11.2023</t>
+  </si>
+  <si>
+    <t>21.11.2023</t>
+  </si>
+  <si>
+    <t>03.11.2023</t>
+  </si>
+  <si>
+    <t>22.11.2023</t>
+  </si>
+  <si>
+    <t>28.11.2023</t>
+  </si>
+  <si>
     <t>06.11.2023</t>
   </si>
   <si>
-    <t>Dijital Uygulama</t>
-  </si>
-  <si>
-    <t>24.11.2023</t>
-  </si>
-  <si>
-    <t>20.11.2023</t>
-  </si>
-  <si>
-    <t>10.11.2023</t>
+    <t>15.11.2023</t>
+  </si>
+  <si>
+    <t>27.11.2023</t>
+  </si>
+  <si>
+    <t>14.11.2023</t>
   </si>
   <si>
     <t>01.11.2023</t>
   </si>
   <si>
-    <t>13.11.2023</t>
-  </si>
-  <si>
-    <t>17.11.2023</t>
-  </si>
-  <si>
-    <t>Engin</t>
-  </si>
-  <si>
-    <t>27.11.2023</t>
+    <t>30.11.2023</t>
+  </si>
+  <si>
+    <t>29.11.2023</t>
+  </si>
+  <si>
+    <t>16.11.2023</t>
   </si>
   <si>
     <t>07.11.2023</t>
   </si>
   <si>
-    <t>23.11.2023</t>
-  </si>
-  <si>
     <t>02.11.2023</t>
   </si>
   <si>
-    <t>09.11.2023</t>
-  </si>
-  <si>
-    <t>29.11.2023</t>
-  </si>
-  <si>
-    <t>03.11.2023</t>
-  </si>
-  <si>
-    <t>Emre</t>
-  </si>
-  <si>
-    <t>Bankacılık</t>
-  </si>
-  <si>
-    <t>30.11.2023</t>
-  </si>
-  <si>
-    <t>14.11.2023</t>
-  </si>
-  <si>
-    <t>08.11.2023</t>
-  </si>
-  <si>
-    <t>22.11.2023</t>
-  </si>
-  <si>
-    <t>Mücahit</t>
-  </si>
-  <si>
-    <t>21.11.2023</t>
-  </si>
-  <si>
-    <t>Gizem</t>
-  </si>
-  <si>
-    <t>16.11.2023</t>
-  </si>
-  <si>
-    <t>Furkan</t>
-  </si>
-  <si>
-    <t>28.11.2023</t>
-  </si>
-  <si>
-    <t>Zelal</t>
-  </si>
-  <si>
-    <t>Birkan</t>
-  </si>
-  <si>
-    <t>15.11.2023</t>
-  </si>
-  <si>
-    <t>Samet</t>
+    <t>Arzu</t>
+  </si>
+  <si>
+    <t>Tufan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ömer </t>
+  </si>
+  <si>
+    <t>Cüneyt</t>
+  </si>
+  <si>
+    <t>Güray</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
   <si>
     <t>Eda</t>
-  </si>
-  <si>
-    <t>Kerem</t>
-  </si>
-  <si>
-    <t>Ahmet</t>
-  </si>
-  <si>
-    <t>Kadir</t>
-  </si>
-  <si>
-    <t>Aleyna</t>
-  </si>
-  <si>
-    <t>Buğra</t>
-  </si>
-  <si>
-    <t>Emir</t>
-  </si>
-  <si>
-    <t>Nursima</t>
-  </si>
-  <si>
-    <t>Gözde</t>
-  </si>
-  <si>
-    <t>Aslınur</t>
-  </si>
-  <si>
-    <t>25.12.2023</t>
-  </si>
-  <si>
-    <t>13.12.2023</t>
-  </si>
-  <si>
-    <t>12.12.2023</t>
-  </si>
-  <si>
-    <t>05.12.2023</t>
-  </si>
-  <si>
-    <t>28.12.2023</t>
-  </si>
-  <si>
-    <t>18.12.2023</t>
-  </si>
-  <si>
-    <t>27.12.2023</t>
-  </si>
-  <si>
-    <t>15.12.2023</t>
-  </si>
-  <si>
-    <t>04.12.2023</t>
-  </si>
-  <si>
-    <t>20.12.2023</t>
-  </si>
-  <si>
-    <t>29.12.2023</t>
-  </si>
-  <si>
-    <t>06.12.2023</t>
-  </si>
-  <si>
-    <t>26.12.2023</t>
-  </si>
-  <si>
-    <t>22.12.2023</t>
-  </si>
-  <si>
-    <t>14.12.2023</t>
-  </si>
-  <si>
-    <t>21.12.2023</t>
-  </si>
-  <si>
-    <t>19.12.2023</t>
-  </si>
-  <si>
-    <t>07.12.2023</t>
-  </si>
-  <si>
-    <t>08.12.2023</t>
-  </si>
-  <si>
-    <t>01.12.2023</t>
-  </si>
-  <si>
-    <t>11.12.2023</t>
-  </si>
-  <si>
-    <t>Arzu</t>
-  </si>
-  <si>
-    <t>Tufan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ömer </t>
-  </si>
-  <si>
-    <t>Cüneyt</t>
-  </si>
-  <si>
-    <t>Güray</t>
-  </si>
-  <si>
-    <t>Name</t>
   </si>
 </sst>
 </file>
@@ -617,7 +617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{985BC178-C795-4907-A9FA-007C2EBF8CA4}">
-  <dimension ref="A1:D260"/>
+  <dimension ref="A1:D253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
@@ -847,10 +847,10 @@
         <v>21</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>22</v>
@@ -861,10 +861,10 @@
         <v>21</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>22</v>
@@ -875,10 +875,10 @@
         <v>21</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>22</v>
@@ -889,10 +889,10 @@
         <v>21</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>22</v>
@@ -903,10 +903,10 @@
         <v>21</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>22</v>
@@ -917,10 +917,10 @@
         <v>21</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>22</v>
@@ -931,10 +931,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>22</v>
@@ -942,7 +942,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>7</v>
@@ -956,13 +956,13 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>22</v>
@@ -970,13 +970,13 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>22</v>
@@ -984,13 +984,13 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>22</v>
@@ -998,13 +998,13 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="C27" s="0" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>22</v>
@@ -1012,13 +1012,13 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>22</v>
@@ -1026,13 +1026,13 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>22</v>
@@ -1040,13 +1040,13 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D30" s="0" t="s">
         <v>6</v>
@@ -1054,13 +1054,13 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="0" t="s">
-        <v>24</v>
-      </c>
       <c r="C31" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>6</v>
@@ -1068,13 +1068,13 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>6</v>
@@ -1082,13 +1082,13 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D33" s="0" t="s">
         <v>6</v>
@@ -1096,13 +1096,13 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>6</v>
@@ -1110,13 +1110,13 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>6</v>
@@ -1124,13 +1124,13 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>6</v>
@@ -1141,10 +1141,10 @@
         <v>31</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D37" s="0" t="s">
         <v>6</v>
@@ -1155,10 +1155,10 @@
         <v>31</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>6</v>
@@ -1169,10 +1169,10 @@
         <v>31</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D39" s="0" t="s">
         <v>6</v>
@@ -1183,10 +1183,10 @@
         <v>31</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D40" s="0" t="s">
         <v>6</v>
@@ -1197,10 +1197,10 @@
         <v>31</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D41" s="0" t="s">
         <v>6</v>
@@ -1211,10 +1211,10 @@
         <v>31</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D42" s="0" t="s">
         <v>6</v>
@@ -1225,10 +1225,10 @@
         <v>31</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>6</v>
@@ -1239,10 +1239,10 @@
         <v>33</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D44" s="0" t="s">
         <v>22</v>
@@ -1253,10 +1253,10 @@
         <v>33</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D45" s="0" t="s">
         <v>22</v>
@@ -1267,10 +1267,10 @@
         <v>33</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D46" s="0" t="s">
         <v>22</v>
@@ -1281,10 +1281,10 @@
         <v>33</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D47" s="0" t="s">
         <v>22</v>
@@ -1295,10 +1295,10 @@
         <v>33</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D48" s="0" t="s">
         <v>22</v>
@@ -1309,10 +1309,10 @@
         <v>33</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D49" s="0" t="s">
         <v>22</v>
@@ -1323,10 +1323,10 @@
         <v>33</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D50" s="0" t="s">
         <v>22</v>
@@ -1337,10 +1337,10 @@
         <v>34</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D51" s="0" t="s">
         <v>6</v>
@@ -1351,10 +1351,10 @@
         <v>34</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D52" s="0" t="s">
         <v>6</v>
@@ -1365,10 +1365,10 @@
         <v>34</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="D53" s="0" t="s">
         <v>6</v>
@@ -1379,10 +1379,10 @@
         <v>34</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>6</v>
@@ -1393,10 +1393,10 @@
         <v>34</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D55" s="0" t="s">
         <v>6</v>
@@ -1407,10 +1407,10 @@
         <v>34</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D56" s="0" t="s">
         <v>6</v>
@@ -1421,10 +1421,10 @@
         <v>34</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D57" s="0" t="s">
         <v>6</v>
@@ -1432,13 +1432,13 @@
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>6</v>
@@ -1446,13 +1446,13 @@
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D59" s="0" t="s">
         <v>6</v>
@@ -1460,13 +1460,13 @@
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D60" s="0" t="s">
         <v>6</v>
@@ -1474,13 +1474,13 @@
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D61" s="0" t="s">
         <v>6</v>
@@ -1488,13 +1488,13 @@
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D62" s="0" t="s">
         <v>6</v>
@@ -1502,7 +1502,7 @@
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B63" s="0" t="s">
         <v>30</v>
@@ -1516,13 +1516,13 @@
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D64" s="0" t="s">
         <v>6</v>
@@ -1530,77 +1530,77 @@
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B70" s="0" t="s">
         <v>26</v>
@@ -1609,130 +1609,130 @@
         <v>26</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D79" s="0" t="s">
         <v>6</v>
@@ -1740,13 +1740,13 @@
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D80" s="0" t="s">
         <v>6</v>
@@ -1754,13 +1754,13 @@
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D81" s="0" t="s">
         <v>6</v>
@@ -1768,13 +1768,13 @@
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D82" s="0" t="s">
         <v>6</v>
@@ -1782,13 +1782,13 @@
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D83" s="0" t="s">
         <v>6</v>
@@ -1796,13 +1796,13 @@
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D84" s="0" t="s">
         <v>6</v>
@@ -1810,13 +1810,13 @@
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D85" s="0" t="s">
         <v>6</v>
@@ -1824,111 +1824,111 @@
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D93" s="0" t="s">
         <v>22</v>
@@ -1936,13 +1936,13 @@
     </row>
     <row r="94">
       <c r="A94" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D94" s="0" t="s">
         <v>22</v>
@@ -1950,13 +1950,13 @@
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D95" s="0" t="s">
         <v>22</v>
@@ -1964,13 +1964,13 @@
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D96" s="0" t="s">
         <v>22</v>
@@ -1978,13 +1978,13 @@
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D97" s="0" t="s">
         <v>22</v>
@@ -1992,13 +1992,13 @@
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D98" s="0" t="s">
         <v>22</v>
@@ -2006,7 +2006,7 @@
     </row>
     <row r="99">
       <c r="A99" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B99" s="0" t="s">
         <v>5</v>
@@ -2020,13 +2020,13 @@
     </row>
     <row r="100">
       <c r="A100" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D100" s="0" t="s">
         <v>22</v>
@@ -2034,13 +2034,13 @@
     </row>
     <row r="101">
       <c r="A101" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D101" s="0" t="s">
         <v>22</v>
@@ -2048,13 +2048,13 @@
     </row>
     <row r="102">
       <c r="A102" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D102" s="0" t="s">
         <v>22</v>
@@ -2062,13 +2062,13 @@
     </row>
     <row r="103">
       <c r="A103" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D103" s="0" t="s">
         <v>22</v>
@@ -2076,13 +2076,13 @@
     </row>
     <row r="104">
       <c r="A104" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" s="0" t="s">
         <v>22</v>
@@ -2090,13 +2090,13 @@
     </row>
     <row r="105">
       <c r="A105" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D105" s="0" t="s">
         <v>22</v>
@@ -2104,13 +2104,13 @@
     </row>
     <row r="106">
       <c r="A106" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D106" s="0" t="s">
         <v>22</v>
@@ -2118,13 +2118,13 @@
     </row>
     <row r="107">
       <c r="A107" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D107" s="0" t="s">
         <v>22</v>
@@ -2132,13 +2132,13 @@
     </row>
     <row r="108">
       <c r="A108" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D108" s="0" t="s">
         <v>22</v>
@@ -2146,13 +2146,13 @@
     </row>
     <row r="109">
       <c r="A109" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D109" s="0" t="s">
         <v>22</v>
@@ -2160,13 +2160,13 @@
     </row>
     <row r="110">
       <c r="A110" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D110" s="0" t="s">
         <v>22</v>
@@ -2174,13 +2174,13 @@
     </row>
     <row r="111">
       <c r="A111" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D111" s="0" t="s">
         <v>22</v>
@@ -2188,13 +2188,13 @@
     </row>
     <row r="112">
       <c r="A112" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D112" s="0" t="s">
         <v>22</v>
@@ -2202,13 +2202,13 @@
     </row>
     <row r="113">
       <c r="A113" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D113" s="0" t="s">
         <v>22</v>
@@ -2216,307 +2216,307 @@
     </row>
     <row r="114">
       <c r="A114" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B129" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="B129" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="C129" s="0" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="0" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="0" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="0" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D135" s="0" t="s">
         <v>6</v>
@@ -2524,13 +2524,13 @@
     </row>
     <row r="136">
       <c r="A136" s="0" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D136" s="0" t="s">
         <v>6</v>
@@ -2538,13 +2538,13 @@
     </row>
     <row r="137">
       <c r="A137" s="0" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D137" s="0" t="s">
         <v>6</v>
@@ -2552,13 +2552,13 @@
     </row>
     <row r="138">
       <c r="A138" s="0" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D138" s="0" t="s">
         <v>6</v>
@@ -2566,13 +2566,13 @@
     </row>
     <row r="139">
       <c r="A139" s="0" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D139" s="0" t="s">
         <v>6</v>
@@ -2580,13 +2580,13 @@
     </row>
     <row r="140">
       <c r="A140" s="0" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D140" s="0" t="s">
         <v>6</v>
@@ -2594,13 +2594,13 @@
     </row>
     <row r="141">
       <c r="A141" s="0" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D141" s="0" t="s">
         <v>6</v>
@@ -2608,105 +2608,105 @@
     </row>
     <row r="142">
       <c r="A142" s="0" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="0" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D143" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="0" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="0" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="0" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D146" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="0" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="D147" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="0" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B149" s="0" t="s">
         <v>53</v>
@@ -2720,13 +2720,13 @@
     </row>
     <row r="150">
       <c r="A150" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D150" s="0" t="s">
         <v>22</v>
@@ -2734,7 +2734,7 @@
     </row>
     <row r="151">
       <c r="A151" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B151" s="0" t="s">
         <v>47</v>
@@ -2748,13 +2748,13 @@
     </row>
     <row r="152">
       <c r="A152" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D152" s="0" t="s">
         <v>22</v>
@@ -2762,13 +2762,13 @@
     </row>
     <row r="153">
       <c r="A153" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D153" s="0" t="s">
         <v>22</v>
@@ -2776,13 +2776,13 @@
     </row>
     <row r="154">
       <c r="A154" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D154" s="0" t="s">
         <v>22</v>
@@ -2790,13 +2790,13 @@
     </row>
     <row r="155">
       <c r="A155" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="D155" s="0" t="s">
         <v>22</v>
@@ -2804,105 +2804,105 @@
     </row>
     <row r="156">
       <c r="A156" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D156" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D157" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D158" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D159" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D160" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D161" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D162" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B163" s="0" t="s">
         <v>62</v>
@@ -2916,13 +2916,13 @@
     </row>
     <row r="164">
       <c r="A164" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D164" s="0" t="s">
         <v>6</v>
@@ -2930,13 +2930,13 @@
     </row>
     <row r="165">
       <c r="A165" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="D165" s="0" t="s">
         <v>6</v>
@@ -2944,13 +2944,13 @@
     </row>
     <row r="166">
       <c r="A166" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D166" s="0" t="s">
         <v>6</v>
@@ -2958,13 +2958,13 @@
     </row>
     <row r="167">
       <c r="A167" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D167" s="0" t="s">
         <v>6</v>
@@ -2972,13 +2972,13 @@
     </row>
     <row r="168">
       <c r="A168" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D168" s="0" t="s">
         <v>6</v>
@@ -2986,13 +2986,13 @@
     </row>
     <row r="169">
       <c r="A169" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D169" s="0" t="s">
         <v>6</v>
@@ -3000,63 +3000,63 @@
     </row>
     <row r="170">
       <c r="A170" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D170" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D171" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D172" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D173" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B174" s="0" t="s">
         <v>60</v>
@@ -3065,144 +3065,144 @@
         <v>60</v>
       </c>
       <c r="D174" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D175" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D176" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="D177" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D178" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="D179" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D180" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D181" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D182" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D183" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D184" s="0" t="s">
         <v>6</v>
@@ -3210,13 +3210,13 @@
     </row>
     <row r="185">
       <c r="A185" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="D185" s="0" t="s">
         <v>6</v>
@@ -3224,13 +3224,13 @@
     </row>
     <row r="186">
       <c r="A186" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D186" s="0" t="s">
         <v>6</v>
@@ -3238,13 +3238,13 @@
     </row>
     <row r="187">
       <c r="A187" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D187" s="0" t="s">
         <v>6</v>
@@ -3252,13 +3252,13 @@
     </row>
     <row r="188">
       <c r="A188" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D188" s="0" t="s">
         <v>6</v>
@@ -3266,13 +3266,13 @@
     </row>
     <row r="189">
       <c r="A189" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D189" s="0" t="s">
         <v>6</v>
@@ -3280,13 +3280,13 @@
     </row>
     <row r="190">
       <c r="A190" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D190" s="0" t="s">
         <v>6</v>
@@ -3297,13 +3297,13 @@
         <v>36</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D191" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="192">
@@ -3311,13 +3311,13 @@
         <v>36</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="D192" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="193">
@@ -3325,13 +3325,13 @@
         <v>36</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D193" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="194">
@@ -3339,13 +3339,13 @@
         <v>36</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D194" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="195">
@@ -3353,13 +3353,13 @@
         <v>36</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D195" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="196">
@@ -3367,13 +3367,13 @@
         <v>36</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D196" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="197">
@@ -3381,122 +3381,122 @@
         <v>36</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D197" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D198" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="D199" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D200" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D201" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D202" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D203" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D204" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="D205" s="0" t="s">
         <v>6</v>
@@ -3504,13 +3504,13 @@
     </row>
     <row r="206">
       <c r="A206" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="D206" s="0" t="s">
         <v>6</v>
@@ -3518,13 +3518,13 @@
     </row>
     <row r="207">
       <c r="A207" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D207" s="0" t="s">
         <v>6</v>
@@ -3532,13 +3532,13 @@
     </row>
     <row r="208">
       <c r="A208" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D208" s="0" t="s">
         <v>6</v>
@@ -3546,13 +3546,13 @@
     </row>
     <row r="209">
       <c r="A209" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D209" s="0" t="s">
         <v>6</v>
@@ -3560,13 +3560,13 @@
     </row>
     <row r="210">
       <c r="A210" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D210" s="0" t="s">
         <v>6</v>
@@ -3574,13 +3574,13 @@
     </row>
     <row r="211">
       <c r="A211" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D211" s="0" t="s">
         <v>6</v>
@@ -3588,111 +3588,111 @@
     </row>
     <row r="212">
       <c r="A212" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D212" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D213" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D214" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D215" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D216" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D217" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D218" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D219" s="0" t="s">
         <v>22</v>
@@ -3700,7 +3700,7 @@
     </row>
     <row r="220">
       <c r="A220" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B220" s="0" t="s">
         <v>62</v>
@@ -3714,13 +3714,13 @@
     </row>
     <row r="221">
       <c r="A221" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D221" s="0" t="s">
         <v>22</v>
@@ -3728,13 +3728,13 @@
     </row>
     <row r="222">
       <c r="A222" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D222" s="0" t="s">
         <v>22</v>
@@ -3742,13 +3742,13 @@
     </row>
     <row r="223">
       <c r="A223" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D223" s="0" t="s">
         <v>22</v>
@@ -3756,7 +3756,7 @@
     </row>
     <row r="224">
       <c r="A224" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B224" s="0" t="s">
         <v>54</v>
@@ -3770,13 +3770,13 @@
     </row>
     <row r="225">
       <c r="A225" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D225" s="0" t="s">
         <v>22</v>
@@ -3784,13 +3784,13 @@
     </row>
     <row r="226">
       <c r="A226" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D226" s="0" t="s">
         <v>22</v>
@@ -3798,13 +3798,13 @@
     </row>
     <row r="227">
       <c r="A227" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D227" s="0" t="s">
         <v>22</v>
@@ -3812,13 +3812,13 @@
     </row>
     <row r="228">
       <c r="A228" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D228" s="0" t="s">
         <v>22</v>
@@ -3826,13 +3826,13 @@
     </row>
     <row r="229">
       <c r="A229" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D229" s="0" t="s">
         <v>22</v>
@@ -3840,13 +3840,13 @@
     </row>
     <row r="230">
       <c r="A230" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D230" s="0" t="s">
         <v>22</v>
@@ -3854,13 +3854,13 @@
     </row>
     <row r="231">
       <c r="A231" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D231" s="0" t="s">
         <v>22</v>
@@ -3868,13 +3868,13 @@
     </row>
     <row r="232">
       <c r="A232" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D232" s="0" t="s">
         <v>22</v>
@@ -3882,13 +3882,13 @@
     </row>
     <row r="233">
       <c r="A233" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="D233" s="0" t="s">
         <v>22</v>
@@ -3896,13 +3896,13 @@
     </row>
     <row r="234">
       <c r="A234" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D234" s="0" t="s">
         <v>22</v>
@@ -3910,13 +3910,13 @@
     </row>
     <row r="235">
       <c r="A235" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D235" s="0" t="s">
         <v>22</v>
@@ -3924,13 +3924,13 @@
     </row>
     <row r="236">
       <c r="A236" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="D236" s="0" t="s">
         <v>22</v>
@@ -3938,13 +3938,13 @@
     </row>
     <row r="237">
       <c r="A237" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D237" s="0" t="s">
         <v>22</v>
@@ -3952,13 +3952,13 @@
     </row>
     <row r="238">
       <c r="A238" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D238" s="0" t="s">
         <v>22</v>
@@ -3966,13 +3966,13 @@
     </row>
     <row r="239">
       <c r="A239" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="D239" s="0" t="s">
         <v>22</v>
@@ -3980,295 +3980,197 @@
     </row>
     <row r="240">
       <c r="A240" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D240" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D241" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D242" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D243" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D244" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C245" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D245" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C246" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D246" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D247" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D248" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="D249" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D250" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D251" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C252" s="0" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D252" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D253" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B254" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C254" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D254" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B255" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="C255" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="D255" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B256" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C256" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="D256" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B257" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="C257" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="D257" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B258" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="C258" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="D258" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B259" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="C259" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="D259" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B260" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="C260" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="D260" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4306,453 +4208,453 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -4773,37 +4675,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -4824,7 +4726,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>3</v>
@@ -4856,7 +4758,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>22</v>
@@ -4864,7 +4766,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>6</v>
@@ -4896,7 +4798,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>6</v>
@@ -4904,7 +4806,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>6</v>
@@ -4912,7 +4814,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>22</v>
@@ -4920,7 +4822,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>6</v>
@@ -4928,7 +4830,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>6</v>
@@ -4936,7 +4838,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>22</v>
@@ -4944,7 +4846,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>22</v>
@@ -4952,7 +4854,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>22</v>
@@ -4960,7 +4862,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>22</v>
@@ -4968,7 +4870,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>6</v>
@@ -4976,7 +4878,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>22</v>

--- a/Calendar1/calendar.xlsx
+++ b/Calendar1/calendar.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sadik Demir\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sadik Demir\source\repos\Calendar1\Calendar1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B095685-8981-4FDE-90F3-10D5553F5B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D77468B-6BAD-45C1-A24D-CC36D32C7684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4515" yWindow="1575" windowWidth="21600" windowHeight="11295" xr2:uid="{71DB0C02-FA5B-4BDE-8BC6-B3133706C996}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{71DB0C02-FA5B-4BDE-8BC6-B3133706C996}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Title</t>
   </si>
@@ -56,90 +56,90 @@
     <t>Sadık</t>
   </si>
   <si>
+    <t>21.12.2023</t>
+  </si>
+  <si>
+    <t>Dijital Uygulama</t>
+  </si>
+  <si>
+    <t>29.12.2023</t>
+  </si>
+  <si>
+    <t>26.12.2023</t>
+  </si>
+  <si>
+    <t>08.12.2023</t>
+  </si>
+  <si>
+    <t>06.12.2023</t>
+  </si>
+  <si>
+    <t>28.12.2023</t>
+  </si>
+  <si>
+    <t>01.12.2023</t>
+  </si>
+  <si>
+    <t>Engin</t>
+  </si>
+  <si>
+    <t>12.12.2023</t>
+  </si>
+  <si>
     <t>25.12.2023</t>
   </si>
   <si>
-    <t>Dijital Uygulama</t>
-  </si>
-  <si>
     <t>13.12.2023</t>
   </si>
   <si>
-    <t>12.12.2023</t>
+    <t>20.12.2023</t>
+  </si>
+  <si>
+    <t>18.12.2023</t>
+  </si>
+  <si>
+    <t>07.12.2023</t>
   </si>
   <si>
     <t>05.12.2023</t>
   </si>
   <si>
-    <t>28.12.2023</t>
-  </si>
-  <si>
-    <t>18.12.2023</t>
+    <t>Emre</t>
+  </si>
+  <si>
+    <t>Bankacılık</t>
+  </si>
+  <si>
+    <t>15.12.2023</t>
+  </si>
+  <si>
+    <t>04.12.2023</t>
+  </si>
+  <si>
+    <t>11.12.2023</t>
+  </si>
+  <si>
+    <t>Mücahit</t>
+  </si>
+  <si>
+    <t>22.12.2023</t>
+  </si>
+  <si>
+    <t>Gizem</t>
+  </si>
+  <si>
+    <t>14.12.2023</t>
+  </si>
+  <si>
+    <t>19.12.2023</t>
+  </si>
+  <si>
+    <t>Furkan</t>
   </si>
   <si>
     <t>27.12.2023</t>
   </si>
   <si>
-    <t>Engin</t>
-  </si>
-  <si>
-    <t>15.12.2023</t>
-  </si>
-  <si>
-    <t>04.12.2023</t>
-  </si>
-  <si>
-    <t>20.12.2023</t>
-  </si>
-  <si>
-    <t>29.12.2023</t>
-  </si>
-  <si>
-    <t>06.12.2023</t>
-  </si>
-  <si>
-    <t>26.12.2023</t>
-  </si>
-  <si>
-    <t>22.12.2023</t>
-  </si>
-  <si>
-    <t>Emre</t>
-  </si>
-  <si>
-    <t>Bankacılık</t>
-  </si>
-  <si>
-    <t>14.12.2023</t>
-  </si>
-  <si>
-    <t>21.12.2023</t>
-  </si>
-  <si>
-    <t>Mücahit</t>
-  </si>
-  <si>
-    <t>19.12.2023</t>
-  </si>
-  <si>
-    <t>07.12.2023</t>
-  </si>
-  <si>
-    <t>Gizem</t>
-  </si>
-  <si>
-    <t>08.12.2023</t>
-  </si>
-  <si>
-    <t>01.12.2023</t>
-  </si>
-  <si>
-    <t>Furkan</t>
-  </si>
-  <si>
-    <t>11.12.2023</t>
-  </si>
-  <si>
     <t>Zelal</t>
   </si>
   <si>
@@ -149,6 +149,9 @@
     <t>Samet</t>
   </si>
   <si>
+    <t>Eda</t>
+  </si>
+  <si>
     <t>Kerem</t>
   </si>
   <si>
@@ -176,72 +179,6 @@
     <t>Aslınur</t>
   </si>
   <si>
-    <t>08.11.2023</t>
-  </si>
-  <si>
-    <t>13.11.2023</t>
-  </si>
-  <si>
-    <t>09.11.2023</t>
-  </si>
-  <si>
-    <t>10.11.2023</t>
-  </si>
-  <si>
-    <t>23.11.2023</t>
-  </si>
-  <si>
-    <t>24.11.2023</t>
-  </si>
-  <si>
-    <t>20.11.2023</t>
-  </si>
-  <si>
-    <t>17.11.2023</t>
-  </si>
-  <si>
-    <t>21.11.2023</t>
-  </si>
-  <si>
-    <t>03.11.2023</t>
-  </si>
-  <si>
-    <t>22.11.2023</t>
-  </si>
-  <si>
-    <t>28.11.2023</t>
-  </si>
-  <si>
-    <t>06.11.2023</t>
-  </si>
-  <si>
-    <t>15.11.2023</t>
-  </si>
-  <si>
-    <t>27.11.2023</t>
-  </si>
-  <si>
-    <t>14.11.2023</t>
-  </si>
-  <si>
-    <t>01.11.2023</t>
-  </si>
-  <si>
-    <t>30.11.2023</t>
-  </si>
-  <si>
-    <t>29.11.2023</t>
-  </si>
-  <si>
-    <t>16.11.2023</t>
-  </si>
-  <si>
-    <t>07.11.2023</t>
-  </si>
-  <si>
-    <t>02.11.2023</t>
-  </si>
-  <si>
     <t>Arzu</t>
   </si>
   <si>
@@ -258,9 +195,6 @@
   </si>
   <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>Eda</t>
   </si>
 </sst>
 </file>
@@ -617,9 +551,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{985BC178-C795-4907-A9FA-007C2EBF8CA4}">
-  <dimension ref="A1:D253"/>
+  <dimension ref="A1:D134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -847,10 +781,10 @@
         <v>21</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>22</v>
@@ -875,10 +809,10 @@
         <v>21</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>22</v>
@@ -889,10 +823,10 @@
         <v>21</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>22</v>
@@ -903,10 +837,10 @@
         <v>21</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>22</v>
@@ -917,10 +851,10 @@
         <v>21</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>22</v>
@@ -931,10 +865,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>22</v>
@@ -942,13 +876,13 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>22</v>
@@ -956,13 +890,13 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>22</v>
@@ -970,7 +904,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>14</v>
@@ -984,13 +918,13 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>22</v>
@@ -998,13 +932,13 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>22</v>
@@ -1012,13 +946,13 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>22</v>
@@ -1026,13 +960,13 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>22</v>
@@ -1043,10 +977,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D30" s="0" t="s">
         <v>6</v>
@@ -1057,10 +991,10 @@
         <v>28</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>6</v>
@@ -1071,10 +1005,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>6</v>
@@ -1085,10 +1019,10 @@
         <v>28</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D33" s="0" t="s">
         <v>6</v>
@@ -1099,10 +1033,10 @@
         <v>28</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>6</v>
@@ -1113,10 +1047,10 @@
         <v>28</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>6</v>
@@ -1127,10 +1061,10 @@
         <v>28</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>6</v>
@@ -1141,10 +1075,10 @@
         <v>31</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D37" s="0" t="s">
         <v>6</v>
@@ -1155,10 +1089,10 @@
         <v>31</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>6</v>
@@ -1169,10 +1103,10 @@
         <v>31</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D39" s="0" t="s">
         <v>6</v>
@@ -1183,10 +1117,10 @@
         <v>31</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D40" s="0" t="s">
         <v>6</v>
@@ -1197,10 +1131,10 @@
         <v>31</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D41" s="0" t="s">
         <v>6</v>
@@ -1211,10 +1145,10 @@
         <v>31</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D42" s="0" t="s">
         <v>6</v>
@@ -1225,10 +1159,10 @@
         <v>31</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>6</v>
@@ -1239,10 +1173,10 @@
         <v>33</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D44" s="0" t="s">
         <v>22</v>
@@ -1253,10 +1187,10 @@
         <v>33</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D45" s="0" t="s">
         <v>22</v>
@@ -1281,10 +1215,10 @@
         <v>33</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D47" s="0" t="s">
         <v>22</v>
@@ -1295,10 +1229,10 @@
         <v>33</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D48" s="0" t="s">
         <v>22</v>
@@ -1309,10 +1243,10 @@
         <v>33</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D49" s="0" t="s">
         <v>22</v>
@@ -1323,10 +1257,10 @@
         <v>33</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D50" s="0" t="s">
         <v>22</v>
@@ -1337,10 +1271,10 @@
         <v>34</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D51" s="0" t="s">
         <v>6</v>
@@ -1351,10 +1285,10 @@
         <v>34</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D52" s="0" t="s">
         <v>6</v>
@@ -1365,10 +1299,10 @@
         <v>34</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D53" s="0" t="s">
         <v>6</v>
@@ -1379,10 +1313,10 @@
         <v>34</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>6</v>
@@ -1393,10 +1327,10 @@
         <v>34</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D55" s="0" t="s">
         <v>6</v>
@@ -1407,10 +1341,10 @@
         <v>34</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D56" s="0" t="s">
         <v>6</v>
@@ -1421,10 +1355,10 @@
         <v>34</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D57" s="0" t="s">
         <v>6</v>
@@ -1435,10 +1369,10 @@
         <v>35</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>6</v>
@@ -1449,10 +1383,10 @@
         <v>35</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="D59" s="0" t="s">
         <v>6</v>
@@ -1463,10 +1397,10 @@
         <v>35</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D60" s="0" t="s">
         <v>6</v>
@@ -1477,10 +1411,10 @@
         <v>35</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D61" s="0" t="s">
         <v>6</v>
@@ -1491,10 +1425,10 @@
         <v>35</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D62" s="0" t="s">
         <v>6</v>
@@ -1505,10 +1439,10 @@
         <v>35</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="D63" s="0" t="s">
         <v>6</v>
@@ -1519,10 +1453,10 @@
         <v>35</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D64" s="0" t="s">
         <v>6</v>
@@ -1533,13 +1467,13 @@
         <v>36</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66">
@@ -1547,13 +1481,13 @@
         <v>36</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67">
@@ -1561,13 +1495,13 @@
         <v>36</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68">
@@ -1575,13 +1509,13 @@
         <v>36</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69">
@@ -1589,13 +1523,13 @@
         <v>36</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70">
@@ -1603,13 +1537,13 @@
         <v>36</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71">
@@ -1617,13 +1551,13 @@
         <v>36</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72">
@@ -1631,13 +1565,13 @@
         <v>37</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73">
@@ -1645,13 +1579,13 @@
         <v>37</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74">
@@ -1665,7 +1599,7 @@
         <v>29</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75">
@@ -1673,13 +1607,13 @@
         <v>37</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76">
@@ -1687,13 +1621,13 @@
         <v>37</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77">
@@ -1701,13 +1635,13 @@
         <v>37</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78">
@@ -1715,13 +1649,13 @@
         <v>37</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79">
@@ -1729,10 +1663,10 @@
         <v>38</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D79" s="0" t="s">
         <v>6</v>
@@ -1743,10 +1677,10 @@
         <v>38</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D80" s="0" t="s">
         <v>6</v>
@@ -1757,10 +1691,10 @@
         <v>38</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D81" s="0" t="s">
         <v>6</v>
@@ -1771,10 +1705,10 @@
         <v>38</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D82" s="0" t="s">
         <v>6</v>
@@ -1785,10 +1719,10 @@
         <v>38</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D83" s="0" t="s">
         <v>6</v>
@@ -1799,10 +1733,10 @@
         <v>38</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D84" s="0" t="s">
         <v>6</v>
@@ -1813,10 +1747,10 @@
         <v>38</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D85" s="0" t="s">
         <v>6</v>
@@ -1827,13 +1761,13 @@
         <v>39</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87">
@@ -1841,13 +1775,13 @@
         <v>39</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88">
@@ -1855,13 +1789,13 @@
         <v>39</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89">
@@ -1869,13 +1803,13 @@
         <v>39</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90">
@@ -1883,13 +1817,13 @@
         <v>39</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91">
@@ -1897,13 +1831,13 @@
         <v>39</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92">
@@ -1911,13 +1845,13 @@
         <v>39</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93">
@@ -1925,10 +1859,10 @@
         <v>40</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D93" s="0" t="s">
         <v>22</v>
@@ -1939,10 +1873,10 @@
         <v>40</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D94" s="0" t="s">
         <v>22</v>
@@ -1953,10 +1887,10 @@
         <v>40</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D95" s="0" t="s">
         <v>22</v>
@@ -1967,10 +1901,10 @@
         <v>40</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D96" s="0" t="s">
         <v>22</v>
@@ -1981,10 +1915,10 @@
         <v>40</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D97" s="0" t="s">
         <v>22</v>
@@ -1995,10 +1929,10 @@
         <v>40</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D98" s="0" t="s">
         <v>22</v>
@@ -2009,10 +1943,10 @@
         <v>40</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D99" s="0" t="s">
         <v>22</v>
@@ -2023,10 +1957,10 @@
         <v>41</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D100" s="0" t="s">
         <v>22</v>
@@ -2037,10 +1971,10 @@
         <v>41</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D101" s="0" t="s">
         <v>22</v>
@@ -2051,10 +1985,10 @@
         <v>41</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D102" s="0" t="s">
         <v>22</v>
@@ -2065,10 +1999,10 @@
         <v>41</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D103" s="0" t="s">
         <v>22</v>
@@ -2079,10 +2013,10 @@
         <v>41</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D104" s="0" t="s">
         <v>22</v>
@@ -2093,10 +2027,10 @@
         <v>41</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D105" s="0" t="s">
         <v>22</v>
@@ -2107,10 +2041,10 @@
         <v>41</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D106" s="0" t="s">
         <v>22</v>
@@ -2121,10 +2055,10 @@
         <v>42</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D107" s="0" t="s">
         <v>22</v>
@@ -2135,10 +2069,10 @@
         <v>42</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D108" s="0" t="s">
         <v>22</v>
@@ -2149,10 +2083,10 @@
         <v>42</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D109" s="0" t="s">
         <v>22</v>
@@ -2163,10 +2097,10 @@
         <v>42</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D110" s="0" t="s">
         <v>22</v>
@@ -2177,10 +2111,10 @@
         <v>42</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D111" s="0" t="s">
         <v>22</v>
@@ -2191,10 +2125,10 @@
         <v>42</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D112" s="0" t="s">
         <v>22</v>
@@ -2205,10 +2139,10 @@
         <v>42</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D113" s="0" t="s">
         <v>22</v>
@@ -2219,13 +2153,13 @@
         <v>43</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="115">
@@ -2233,13 +2167,13 @@
         <v>43</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="116">
@@ -2247,13 +2181,13 @@
         <v>43</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="117">
@@ -2261,13 +2195,13 @@
         <v>43</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="118">
@@ -2275,13 +2209,13 @@
         <v>43</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="119">
@@ -2289,13 +2223,13 @@
         <v>43</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="120">
@@ -2303,13 +2237,13 @@
         <v>43</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="121">
@@ -2317,13 +2251,13 @@
         <v>44</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="122">
@@ -2331,13 +2265,13 @@
         <v>44</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="123">
@@ -2345,13 +2279,13 @@
         <v>44</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124">
@@ -2359,13 +2293,13 @@
         <v>44</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="125">
@@ -2373,13 +2307,13 @@
         <v>44</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="126">
@@ -2387,13 +2321,13 @@
         <v>44</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127">
@@ -2401,1776 +2335,110 @@
         <v>44</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="0" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="0" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B135" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="C135" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="D135" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B136" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="C136" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="D136" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B137" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C137" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="D137" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B138" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="C138" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="D138" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B139" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="C139" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="D139" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B140" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C140" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="D140" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B141" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="C141" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="D141" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B142" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="C142" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="D142" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B143" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C143" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="D143" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B144" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="C144" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="D144" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B145" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="C145" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D145" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B146" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="C146" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="D146" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B147" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C147" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D147" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B148" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="C148" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="D148" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B149" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="C149" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="D149" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B150" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="C150" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="D150" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B151" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C151" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="D151" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B152" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C152" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D152" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B153" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="C153" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="D153" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B154" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="C154" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="D154" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B155" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="C155" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="D155" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B156" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="C156" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="D156" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B157" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C157" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D157" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B158" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="C158" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="D158" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B159" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="C159" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="D159" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B160" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="C160" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="D160" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B161" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C161" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="D161" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B162" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C162" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="D162" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B163" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="C163" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="D163" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B164" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="C164" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D164" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B165" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="C165" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="D165" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B166" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="C166" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="D166" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B167" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="C167" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="D167" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B168" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C168" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D168" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B169" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="C169" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="D169" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B170" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="C170" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="D170" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B171" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C171" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="D171" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B172" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="C172" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="D172" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B173" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C173" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="D173" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B174" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="C174" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D174" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B175" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="C175" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="D175" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B176" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C176" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="D176" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B177" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C177" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D177" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B178" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="C178" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="D178" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B179" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="C179" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="D179" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B180" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="C180" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D180" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B181" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="C181" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="D181" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B182" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="C182" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="D182" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B183" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="C183" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="D183" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B184" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C184" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="D184" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B185" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="C185" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="D185" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B186" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C186" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D186" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B187" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="C187" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="D187" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B188" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C188" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="D188" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B189" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="C189" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="D189" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B190" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="C190" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="D190" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B191" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="C191" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="D191" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B192" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="C192" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="D192" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B193" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C193" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="D193" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B194" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="C194" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D194" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B195" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C195" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="D195" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B196" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="C196" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="D196" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B197" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="C197" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="D197" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B198" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="C198" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="D198" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B199" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="C199" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="D199" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B200" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C200" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="D200" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B201" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="C201" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D201" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B202" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C202" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="D202" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B203" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="C203" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="D203" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B204" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="C204" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="D204" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B205" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="C205" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D205" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B206" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C206" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="D206" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B207" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C207" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="D207" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B208" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="C208" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="D208" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B209" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="C209" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="D209" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B210" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="C210" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="D210" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B211" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="C211" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="D211" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B212" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="C212" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="D212" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B213" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="C213" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="D213" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B214" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C214" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="D214" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B215" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C215" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="D215" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B216" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C216" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="D216" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B217" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C217" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="D217" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B218" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="C218" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="D218" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B219" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="C219" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D219" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B220" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="C220" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="D220" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B221" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="C221" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="D221" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B222" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C222" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D222" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B223" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="C223" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="D223" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B224" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C224" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="D224" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B225" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C225" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D225" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B226" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C226" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="D226" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B227" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="C227" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="D227" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B228" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="C228" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="D228" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B229" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C229" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="D229" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B230" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="C230" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="D230" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B231" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C231" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="D231" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B232" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="C232" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="D232" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B233" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="C233" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="D233" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B234" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="C234" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="D234" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B235" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="C235" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="D235" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B236" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C236" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="D236" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B237" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C237" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="D237" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B238" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="C238" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="D238" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B239" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="C239" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D239" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B240" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="C240" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="D240" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B241" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="C241" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="D241" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B242" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C242" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D242" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B243" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C243" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="D243" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B244" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="C244" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="D244" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B245" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="C245" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="D245" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B246" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="C246" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="D246" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B247" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="C247" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D247" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B248" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="C248" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="D248" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B249" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="C249" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="D249" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B250" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C250" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D250" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B251" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C251" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="D251" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B252" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C252" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="D252" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B253" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="C253" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="D253" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4186,7 +2454,7 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4208,57 +2476,57 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
@@ -4266,109 +2534,109 @@
         <v>35</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
@@ -4376,109 +2644,109 @@
         <v>35</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
@@ -4486,54 +2754,54 @@
         <v>35</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
@@ -4541,54 +2809,54 @@
         <v>35</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37">
@@ -4596,65 +2864,65 @@
         <v>35</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -4675,27 +2943,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6">
@@ -4705,7 +2973,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -4718,15 +2986,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F8627D-0AC3-4742-82E3-0C572AA821A1}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>3</v>
@@ -4758,7 +3026,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>22</v>
@@ -4806,7 +3074,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>6</v>
@@ -4814,7 +3082,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>22</v>
@@ -4822,7 +3090,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>6</v>
@@ -4830,7 +3098,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>6</v>
@@ -4838,7 +3106,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>22</v>
@@ -4846,7 +3114,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>22</v>
@@ -4854,7 +3122,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>22</v>
@@ -4862,7 +3130,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>22</v>
@@ -4870,7 +3138,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>6</v>
@@ -4878,7 +3146,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>22</v>
